--- a/data/Загрузка справочник АСТ.xlsx
+++ b/data/Загрузка справочник АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="1183">
   <si>
     <t>Артикул</t>
   </si>
@@ -2644,6 +2644,18 @@
     <t>Пакет вакуум. 160х210 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
   </si>
   <si>
+    <t>112402</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 2 сл., d80 мм, крафт, карт., 25 шт/упак (ООО Бум Кап)</t>
+  </si>
+  <si>
+    <t>БУМ КАП ООО</t>
+  </si>
+  <si>
+    <t>Стаканы бумажные 250-290 мл белые, крафт 2-слойные</t>
+  </si>
+  <si>
     <t>112413</t>
   </si>
   <si>
@@ -3007,6 +3019,12 @@
     <t>Бумага для выпечки силикон. в рулоне 380мм х 25м, коричн. "Master Bake"</t>
   </si>
   <si>
+    <t>113314</t>
+  </si>
+  <si>
+    <t>Бумага для выпечки силикон. в рулоне 380мм х 100м, коричн. "Master Bake"</t>
+  </si>
+  <si>
     <t>113332</t>
   </si>
   <si>
@@ -3086,9 +3104,6 @@
   </si>
   <si>
     <t>Стакан бумажный 250 мл 2 сл., d80 мм, крафт-бел., карт., 20 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>Стаканы бумажные 250-290 мл белые, крафт 2-слойные</t>
   </si>
   <si>
     <t>113386</t>
@@ -3679,7 +3694,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H439"/>
+  <dimension ref="H441"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -11453,80 +11468,78 @@
       <c r="C299" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D299" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D299" s="3" t="e"/>
       <c r="E299" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="300" ht="33" customHeight="true">
+      <c r="A300" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F299" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G299" s="3" t="s">
+      <c r="F300" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G300" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="H299" s="3" t="s">
+      <c r="H300" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="300" ht="22" customHeight="true">
-      <c r="A300" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="C300" s="3" t="s">
+    <row r="301" ht="22" customHeight="true">
+      <c r="A301" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D300" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E300" s="3" t="s">
+      <c r="D301" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F300" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G300" s="3" t="s">
+      <c r="F301" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G301" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H300" s="3" t="s">
+      <c r="H301" s="3" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="301" ht="33" customHeight="true">
-      <c r="A301" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G301" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="H301" s="3" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="302" ht="33" customHeight="true">
       <c r="A302" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>39</v>
@@ -11544,67 +11557,67 @@
         <v>408</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="303" ht="22" customHeight="true">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="303" ht="33" customHeight="true">
       <c r="A303" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E303" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="304" ht="22" customHeight="true">
+      <c r="A304" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="F303" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G303" s="3" t="s">
+      <c r="F304" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G304" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="H303" s="3" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="304" ht="33" customHeight="true">
-      <c r="A304" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E304" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F304" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G304" s="3" t="s">
-        <v>547</v>
-      </c>
       <c r="H304" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="305" ht="33" customHeight="true">
       <c r="A305" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>39</v>
@@ -11622,15 +11635,15 @@
         <v>547</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="306" ht="33" customHeight="true">
       <c r="A306" s="3" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>39</v>
@@ -11645,18 +11658,18 @@
         <v>13</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="307" ht="33" customHeight="true">
       <c r="A307" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>39</v>
@@ -11671,70 +11684,70 @@
         <v>13</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>427</v>
+        <v>521</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="308" ht="33" customHeight="true">
       <c r="A308" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>186</v>
+        <v>500</v>
       </c>
       <c r="F308" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>188</v>
+        <v>900</v>
       </c>
     </row>
     <row r="309" ht="33" customHeight="true">
       <c r="A309" s="3" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="310" ht="22" customHeight="true">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="310" ht="33" customHeight="true">
       <c r="A310" s="3" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>18</v>
@@ -11752,15 +11765,15 @@
         <v>49</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="311" ht="22" customHeight="true">
       <c r="A311" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>18</v>
@@ -11778,15 +11791,15 @@
         <v>49</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>690</v>
+        <v>908</v>
       </c>
     </row>
     <row r="312" ht="22" customHeight="true">
       <c r="A312" s="3" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>18</v>
@@ -11804,18 +11817,18 @@
         <v>49</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>183</v>
+        <v>690</v>
       </c>
     </row>
     <row r="313" ht="22" customHeight="true">
       <c r="A313" s="3" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>13</v>
@@ -11830,15 +11843,15 @@
         <v>49</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>723</v>
+        <v>183</v>
       </c>
     </row>
     <row r="314" ht="22" customHeight="true">
       <c r="A314" s="3" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>39</v>
@@ -11861,10 +11874,10 @@
     </row>
     <row r="315" ht="22" customHeight="true">
       <c r="A315" s="3" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>39</v>
@@ -11882,15 +11895,15 @@
         <v>49</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="316" ht="22" customHeight="true">
       <c r="A316" s="3" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>39</v>
@@ -11913,13 +11926,13 @@
     </row>
     <row r="317" ht="22" customHeight="true">
       <c r="A317" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>13</v>
@@ -11934,24 +11947,24 @@
         <v>49</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>919</v>
+        <v>727</v>
       </c>
     </row>
     <row r="318" ht="22" customHeight="true">
       <c r="A318" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>726</v>
+        <v>173</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>13</v>
@@ -11960,15 +11973,15 @@
         <v>49</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="319" ht="33" customHeight="true">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="319" ht="22" customHeight="true">
       <c r="A319" s="3" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>39</v>
@@ -11986,41 +11999,41 @@
         <v>49</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="320" ht="33" customHeight="true">
       <c r="A320" s="3" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>529</v>
+        <v>927</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>186</v>
+        <v>726</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>530</v>
+        <v>727</v>
       </c>
     </row>
     <row r="321" ht="33" customHeight="true">
       <c r="A321" s="3" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>39</v>
@@ -12038,15 +12051,15 @@
         <v>111</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>112</v>
+        <v>530</v>
       </c>
     </row>
     <row r="322" ht="33" customHeight="true">
       <c r="A322" s="3" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>927</v>
+        <v>534</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>39</v>
@@ -12067,12 +12080,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="323" ht="22" customHeight="true">
+    <row r="323" ht="33" customHeight="true">
       <c r="A323" s="3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>39</v>
@@ -12087,18 +12100,18 @@
         <v>13</v>
       </c>
       <c r="G323" s="3" t="s">
-        <v>350</v>
+        <v>111</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>930</v>
+        <v>112</v>
       </c>
     </row>
     <row r="324" ht="22" customHeight="true">
       <c r="A324" s="3" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>39</v>
@@ -12116,15 +12129,15 @@
         <v>350</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>370</v>
+        <v>934</v>
       </c>
     </row>
     <row r="325" ht="22" customHeight="true">
       <c r="A325" s="3" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>39</v>
@@ -12142,15 +12155,15 @@
         <v>350</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="326" ht="33" customHeight="true">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="326" ht="22" customHeight="true">
       <c r="A326" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>238</v>
+        <v>938</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>39</v>
@@ -12165,18 +12178,18 @@
         <v>13</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>188</v>
+        <v>939</v>
       </c>
     </row>
     <row r="327" ht="33" customHeight="true">
       <c r="A327" s="3" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>938</v>
+        <v>238</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>39</v>
@@ -12185,24 +12198,24 @@
         <v>13</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>939</v>
+        <v>188</v>
       </c>
     </row>
     <row r="328" ht="33" customHeight="true">
       <c r="A328" s="3" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>821</v>
+        <v>942</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>39</v>
@@ -12211,24 +12224,24 @@
         <v>13</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>572</v>
+        <v>191</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>573</v>
+        <v>83</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>574</v>
+        <v>943</v>
       </c>
     </row>
     <row r="329" ht="33" customHeight="true">
       <c r="A329" s="3" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>942</v>
+        <v>821</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>39</v>
@@ -12251,10 +12264,10 @@
     </row>
     <row r="330" ht="33" customHeight="true">
       <c r="A330" s="3" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>39</v>
@@ -12277,62 +12290,62 @@
     </row>
     <row r="331" ht="33" customHeight="true">
       <c r="A331" s="3" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>122</v>
+        <v>572</v>
       </c>
       <c r="F331" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>123</v>
+        <v>573</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>124</v>
+        <v>574</v>
       </c>
     </row>
     <row r="332" ht="33" customHeight="true">
       <c r="A332" s="3" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>572</v>
+        <v>122</v>
       </c>
       <c r="F332" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>676</v>
+        <v>123</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>949</v>
+        <v>124</v>
       </c>
     </row>
     <row r="333" ht="33" customHeight="true">
       <c r="A333" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>39</v>
@@ -12341,76 +12354,76 @@
         <v>13</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>191</v>
+        <v>572</v>
       </c>
       <c r="F333" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>83</v>
+        <v>676</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>159</v>
+        <v>953</v>
       </c>
     </row>
     <row r="334" ht="33" customHeight="true">
       <c r="A334" s="3" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>824</v>
+        <v>191</v>
       </c>
       <c r="F334" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>656</v>
+        <v>83</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>657</v>
+        <v>159</v>
       </c>
     </row>
     <row r="335" ht="33" customHeight="true">
       <c r="A335" s="3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>407</v>
+        <v>824</v>
       </c>
       <c r="F335" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G335" s="3" t="s">
-        <v>427</v>
+        <v>656</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>449</v>
+        <v>657</v>
       </c>
     </row>
     <row r="336" ht="33" customHeight="true">
       <c r="A336" s="3" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>39</v>
@@ -12428,15 +12441,15 @@
         <v>427</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="337" ht="33" customHeight="true">
       <c r="A337" s="3" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>39</v>
@@ -12454,15 +12467,15 @@
         <v>427</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
     </row>
     <row r="338" ht="33" customHeight="true">
       <c r="A338" s="3" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>679</v>
+        <v>963</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>39</v>
@@ -12471,24 +12484,24 @@
         <v>13</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>572</v>
+        <v>407</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>676</v>
+        <v>427</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>677</v>
+        <v>489</v>
       </c>
     </row>
     <row r="339" ht="33" customHeight="true">
       <c r="A339" s="3" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>962</v>
+        <v>679</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>39</v>
@@ -12506,15 +12519,15 @@
         <v>676</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>949</v>
+        <v>677</v>
       </c>
     </row>
     <row r="340" ht="33" customHeight="true">
       <c r="A340" s="3" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>675</v>
+        <v>966</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>39</v>
@@ -12532,59 +12545,59 @@
         <v>676</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>677</v>
+        <v>953</v>
       </c>
     </row>
     <row r="341" ht="33" customHeight="true">
       <c r="A341" s="3" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>272</v>
+        <v>675</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>273</v>
+        <v>572</v>
       </c>
       <c r="F341" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>187</v>
+        <v>676</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>274</v>
+        <v>677</v>
       </c>
     </row>
     <row r="342" ht="33" customHeight="true">
       <c r="A342" s="3" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>966</v>
+        <v>272</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>730</v>
+        <v>39</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>967</v>
+        <v>273</v>
       </c>
       <c r="F342" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>968</v>
+        <v>274</v>
       </c>
     </row>
     <row r="343" ht="33" customHeight="true">
@@ -12601,7 +12614,7 @@
         <v>13</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>13</v>
@@ -12610,15 +12623,15 @@
         <v>54</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="344" ht="33" customHeight="true">
       <c r="A344" s="3" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>730</v>
@@ -12627,7 +12640,7 @@
         <v>13</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F344" s="3" t="s">
         <v>13</v>
@@ -12636,15 +12649,15 @@
         <v>54</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="345" ht="33" customHeight="true">
       <c r="A345" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>730</v>
@@ -12653,7 +12666,7 @@
         <v>13</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F345" s="3" t="s">
         <v>13</v>
@@ -12662,15 +12675,15 @@
         <v>54</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="346" ht="33" customHeight="true">
       <c r="A346" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>730</v>
@@ -12679,7 +12692,7 @@
         <v>13</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F346" s="3" t="s">
         <v>13</v>
@@ -12688,15 +12701,15 @@
         <v>54</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
     </row>
     <row r="347" ht="33" customHeight="true">
       <c r="A347" s="3" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>730</v>
@@ -12705,7 +12718,7 @@
         <v>13</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F347" s="3" t="s">
         <v>13</v>
@@ -12714,15 +12727,15 @@
         <v>54</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="348" ht="33" customHeight="true">
       <c r="A348" s="3" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>730</v>
@@ -12731,7 +12744,7 @@
         <v>13</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F348" s="3" t="s">
         <v>13</v>
@@ -12740,15 +12753,15 @@
         <v>54</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="349" ht="33" customHeight="true">
       <c r="A349" s="3" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>730</v>
@@ -12757,7 +12770,7 @@
         <v>13</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="F349" s="3" t="s">
         <v>13</v>
@@ -12766,41 +12779,41 @@
         <v>54</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="350" ht="22" customHeight="true">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="350" ht="33" customHeight="true">
       <c r="A350" s="3" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>332</v>
+        <v>989</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>39</v>
+        <v>730</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>255</v>
+        <v>971</v>
       </c>
       <c r="F350" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>330</v>
+        <v>981</v>
       </c>
     </row>
     <row r="351" ht="22" customHeight="true">
       <c r="A351" s="3" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>988</v>
+        <v>332</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>39</v>
@@ -12823,10 +12836,10 @@
     </row>
     <row r="352" ht="22" customHeight="true">
       <c r="A352" s="3" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>334</v>
+        <v>992</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>39</v>
@@ -12847,12 +12860,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="353" ht="33" customHeight="true">
+    <row r="353" ht="22" customHeight="true">
       <c r="A353" s="3" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>39</v>
@@ -12867,18 +12880,18 @@
         <v>13</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>232</v>
+        <v>330</v>
       </c>
     </row>
     <row r="354" ht="33" customHeight="true">
       <c r="A354" s="3" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>485</v>
+        <v>254</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>39</v>
@@ -12893,44 +12906,44 @@
         <v>13</v>
       </c>
       <c r="G354" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="355" ht="33" customHeight="true">
+      <c r="A355" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G355" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="H354" s="3" t="s">
+      <c r="H355" s="3" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="355" ht="22" customHeight="true">
-      <c r="A355" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E355" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G355" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H355" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="356" ht="22" customHeight="true">
       <c r="A356" s="3" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>206</v>
+        <v>997</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>10</v>
@@ -12939,7 +12952,7 @@
         <v>11</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="F356" s="3" t="s">
         <v>13</v>
@@ -12951,64 +12964,64 @@
         <v>209</v>
       </c>
     </row>
-    <row r="357" ht="33" customHeight="true">
+    <row r="357" ht="22" customHeight="true">
       <c r="A357" s="3" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>288</v>
+        <v>26</v>
       </c>
       <c r="F357" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G357" s="3" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="358" ht="33" customHeight="true">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="358" ht="22" customHeight="true">
       <c r="A358" s="3" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>288</v>
+        <v>207</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
     </row>
     <row r="359" ht="33" customHeight="true">
       <c r="A359" s="3" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>311</v>
+        <v>1002</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>39</v>
@@ -13026,15 +13039,15 @@
         <v>280</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>312</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="360" ht="33" customHeight="true">
       <c r="A360" s="3" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>39</v>
@@ -13052,15 +13065,15 @@
         <v>280</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="361" ht="33" customHeight="true">
       <c r="A361" s="3" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>39</v>
@@ -13078,15 +13091,15 @@
         <v>280</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="362" ht="33" customHeight="true">
       <c r="A362" s="3" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>39</v>
@@ -13104,15 +13117,15 @@
         <v>280</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="363" ht="33" customHeight="true">
       <c r="A363" s="3" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1004</v>
+        <v>295</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>39</v>
@@ -13130,15 +13143,15 @@
         <v>280</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>1005</v>
+        <v>296</v>
       </c>
     </row>
     <row r="364" ht="33" customHeight="true">
       <c r="A364" s="3" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1007</v>
+        <v>326</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>39</v>
@@ -13156,7 +13169,7 @@
         <v>280</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>1008</v>
+        <v>327</v>
       </c>
     </row>
     <row r="365" ht="33" customHeight="true">
@@ -13208,15 +13221,15 @@
         <v>280</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>327</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="367" ht="33" customHeight="true">
       <c r="A367" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>39</v>
@@ -13234,15 +13247,15 @@
         <v>280</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="368" ht="33" customHeight="true">
       <c r="A368" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>39</v>
@@ -13260,15 +13273,15 @@
         <v>280</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="369" ht="33" customHeight="true">
       <c r="A369" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>39</v>
@@ -13286,15 +13299,15 @@
         <v>280</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="370" ht="33" customHeight="true">
       <c r="A370" s="3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>323</v>
+        <v>1024</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>39</v>
@@ -13312,15 +13325,15 @@
         <v>280</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="371" ht="33" customHeight="true">
       <c r="A371" s="3" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>39</v>
@@ -13338,15 +13351,15 @@
         <v>280</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>1025</v>
+        <v>876</v>
       </c>
     </row>
     <row r="372" ht="33" customHeight="true">
       <c r="A372" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1027</v>
+        <v>323</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>39</v>
@@ -13364,15 +13377,15 @@
         <v>280</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>1028</v>
+        <v>324</v>
       </c>
     </row>
     <row r="373" ht="33" customHeight="true">
       <c r="A373" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B373" s="3" t="s">
         <v>1029</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>1030</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>39</v>
@@ -13390,7 +13403,7 @@
         <v>280</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="374" ht="33" customHeight="true">
@@ -13416,15 +13429,15 @@
         <v>280</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="375" ht="33" customHeight="true">
       <c r="A375" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>305</v>
+        <v>1035</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>39</v>
@@ -13442,15 +13455,15 @@
         <v>280</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>306</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="376" ht="33" customHeight="true">
       <c r="A376" s="3" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>39</v>
@@ -13468,15 +13481,15 @@
         <v>280</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>324</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="377" ht="33" customHeight="true">
       <c r="A377" s="3" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>39</v>
@@ -13494,41 +13507,41 @@
         <v>280</v>
       </c>
       <c r="H377" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="378" ht="33" customHeight="true">
+      <c r="A378" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H378" s="3" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="378" ht="22" customHeight="true">
-      <c r="A378" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E378" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F378" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G378" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H378" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="379" ht="33" customHeight="true">
       <c r="A379" s="3" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>39</v>
@@ -13537,50 +13550,50 @@
         <v>13</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="380" ht="33" customHeight="true">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="380" ht="22" customHeight="true">
       <c r="A380" s="3" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>252</v>
+        <v>1043</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="381" ht="33" customHeight="true">
       <c r="A381" s="3" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>39</v>
@@ -13601,12 +13614,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="382" ht="22" customHeight="true">
+    <row r="382" ht="33" customHeight="true">
       <c r="A382" s="3" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>844</v>
+        <v>252</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>39</v>
@@ -13621,18 +13634,18 @@
         <v>13</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>845</v>
+        <v>188</v>
       </c>
     </row>
     <row r="383" ht="33" customHeight="true">
       <c r="A383" s="3" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1044</v>
+        <v>240</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>39</v>
@@ -13655,10 +13668,10 @@
     </row>
     <row r="384" ht="22" customHeight="true">
       <c r="A384" s="3" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>799</v>
+        <v>844</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>39</v>
@@ -13673,18 +13686,18 @@
         <v>13</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>350</v>
+        <v>49</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>364</v>
+        <v>845</v>
       </c>
     </row>
     <row r="385" ht="33" customHeight="true">
       <c r="A385" s="3" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>39</v>
@@ -13693,102 +13706,102 @@
         <v>13</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>572</v>
+        <v>186</v>
       </c>
       <c r="F385" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>700</v>
+        <v>187</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="386" ht="33" customHeight="true">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="386" ht="22" customHeight="true">
       <c r="A386" s="3" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1049</v>
+        <v>799</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>572</v>
+        <v>186</v>
       </c>
       <c r="F386" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>704</v>
+        <v>350</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>705</v>
+        <v>364</v>
       </c>
     </row>
     <row r="387" ht="33" customHeight="true">
       <c r="A387" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="F387" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>521</v>
+        <v>700</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>650</v>
+        <v>701</v>
       </c>
     </row>
     <row r="388" ht="33" customHeight="true">
       <c r="A388" s="3" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>407</v>
+        <v>572</v>
       </c>
       <c r="F388" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>547</v>
+        <v>704</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>554</v>
+        <v>705</v>
       </c>
     </row>
     <row r="389" ht="33" customHeight="true">
       <c r="A389" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>39</v>
@@ -13797,85 +13810,85 @@
         <v>11</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>1056</v>
+        <v>500</v>
       </c>
       <c r="F389" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>350</v>
+        <v>521</v>
       </c>
       <c r="H389" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="390" ht="33" customHeight="true">
+      <c r="A390" s="3" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="390" ht="22" customHeight="true">
-      <c r="A390" s="3" t="s">
+      <c r="B390" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="B390" s="3" t="s">
-        <v>1059</v>
-      </c>
       <c r="C390" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>1060</v>
+        <v>407</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>83</v>
+        <v>547</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>1061</v>
+        <v>554</v>
       </c>
     </row>
     <row r="391" ht="33" customHeight="true">
       <c r="A391" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H391" s="3" t="s">
         <v>1062</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E391" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F391" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G391" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H391" s="3" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="392" ht="22" customHeight="true">
       <c r="A392" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B392" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="C392" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E392" s="3" t="s">
         <v>1065</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E392" s="3" t="s">
-        <v>1060</v>
       </c>
       <c r="F392" s="3" t="s">
         <v>13</v>
@@ -13884,41 +13897,41 @@
         <v>83</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="393" ht="33" customHeight="true">
       <c r="A393" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H393" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B393" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E393" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F393" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G393" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="H393" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="394" ht="33" customHeight="true">
+    </row>
+    <row r="394" ht="22" customHeight="true">
       <c r="A394" s="3" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>39</v>
@@ -13927,16 +13940,16 @@
         <v>11</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>105</v>
+        <v>1065</v>
       </c>
       <c r="F394" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>656</v>
+        <v>83</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="395" ht="33" customHeight="true">
@@ -13953,42 +13966,42 @@
         <v>13</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>288</v>
+        <v>572</v>
       </c>
       <c r="F395" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>280</v>
+        <v>704</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>1073</v>
+        <v>708</v>
       </c>
     </row>
     <row r="396" ht="33" customHeight="true">
       <c r="A396" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B396" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="C396" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H396" s="3" t="s">
         <v>1075</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E396" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F396" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G396" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H396" s="3" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="397" ht="33" customHeight="true">
@@ -14014,15 +14027,15 @@
         <v>280</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>1021</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="398" ht="33" customHeight="true">
       <c r="A398" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>39</v>
@@ -14040,15 +14053,15 @@
         <v>280</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>296</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="399" ht="33" customHeight="true">
       <c r="A399" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>39</v>
@@ -14057,24 +14070,24 @@
         <v>13</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>500</v>
+        <v>288</v>
       </c>
       <c r="F399" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>427</v>
+        <v>280</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>492</v>
+        <v>876</v>
       </c>
     </row>
     <row r="400" ht="33" customHeight="true">
       <c r="A400" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>39</v>
@@ -14083,25 +14096,25 @@
         <v>13</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>500</v>
+        <v>288</v>
       </c>
       <c r="F400" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>1084</v>
+        <v>280</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>1085</v>
+        <v>296</v>
       </c>
     </row>
     <row r="401" ht="33" customHeight="true">
       <c r="A401" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B401" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="B401" s="3" t="s">
-        <v>1087</v>
-      </c>
       <c r="C401" s="3" t="s">
         <v>39</v>
       </c>
@@ -14109,42 +14122,42 @@
         <v>13</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>572</v>
+        <v>500</v>
       </c>
       <c r="F401" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>676</v>
+        <v>427</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>1088</v>
+        <v>492</v>
       </c>
     </row>
     <row r="402" ht="33" customHeight="true">
       <c r="A402" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G402" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="H402" s="3" t="s">
         <v>1090</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E402" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F402" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G402" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="H402" s="3" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="403" ht="33" customHeight="true">
@@ -14167,7 +14180,7 @@
         <v>13</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="H403" s="3" t="s">
         <v>1093</v>
@@ -14187,16 +14200,16 @@
         <v>13</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="F404" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>521</v>
+        <v>676</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>561</v>
+        <v>677</v>
       </c>
     </row>
     <row r="405" ht="33" customHeight="true">
@@ -14207,31 +14220,31 @@
         <v>1097</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>726</v>
+        <v>572</v>
       </c>
       <c r="F405" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G405" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H405" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="H405" s="3" t="s">
+    </row>
+    <row r="406" ht="33" customHeight="true">
+      <c r="A406" s="3" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="406" ht="22" customHeight="true">
-      <c r="A406" s="3" t="s">
+      <c r="B406" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="B406" s="3" t="s">
-        <v>692</v>
-      </c>
       <c r="C406" s="3" t="s">
         <v>39</v>
       </c>
@@ -14239,16 +14252,16 @@
         <v>13</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>186</v>
+        <v>500</v>
       </c>
       <c r="F406" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>694</v>
+        <v>521</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>695</v>
+        <v>561</v>
       </c>
     </row>
     <row r="407" ht="33" customHeight="true">
@@ -14259,74 +14272,74 @@
         <v>1102</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E407" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="408" ht="22" customHeight="true">
+      <c r="A408" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="409" ht="33" customHeight="true">
+      <c r="A409" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E409" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F407" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G407" s="3" t="s">
+      <c r="F409" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G409" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H407" s="3" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="408" ht="33" customHeight="true">
-      <c r="A408" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E408" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="F408" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G408" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H408" s="3" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="409" ht="22" customHeight="true">
-      <c r="A409" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B409" s="3" t="s">
+      <c r="H409" s="3" t="s">
         <v>1108</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E409" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F409" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G409" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H409" s="3" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="410" ht="33" customHeight="true">
@@ -14337,30 +14350,30 @@
         <v>1110</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>500</v>
+        <v>838</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="411" ht="33" customHeight="true">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="411" ht="22" customHeight="true">
       <c r="A411" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>39</v>
@@ -14369,24 +14382,24 @@
         <v>13</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>407</v>
+        <v>186</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>427</v>
+        <v>49</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>428</v>
+        <v>845</v>
       </c>
     </row>
     <row r="412" ht="33" customHeight="true">
       <c r="A412" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>39</v>
@@ -14395,24 +14408,24 @@
         <v>13</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>427</v>
+        <v>187</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>437</v>
+        <v>274</v>
       </c>
     </row>
     <row r="413" ht="33" customHeight="true">
       <c r="A413" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>39</v>
@@ -14435,10 +14448,10 @@
     </row>
     <row r="414" ht="33" customHeight="true">
       <c r="A414" s="3" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>39</v>
@@ -14447,7 +14460,7 @@
         <v>13</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>255</v>
+        <v>407</v>
       </c>
       <c r="F414" s="3" t="s">
         <v>13</v>
@@ -14456,10 +14469,10 @@
         <v>427</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="415" ht="22" customHeight="true">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="415" ht="33" customHeight="true">
       <c r="A415" s="3" t="s">
         <v>1120</v>
       </c>
@@ -14473,19 +14486,19 @@
         <v>13</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>186</v>
+        <v>407</v>
       </c>
       <c r="F415" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>49</v>
+        <v>427</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="416" ht="22" customHeight="true">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="416" ht="33" customHeight="true">
       <c r="A416" s="3" t="s">
         <v>1122</v>
       </c>
@@ -14493,31 +14506,31 @@
         <v>1123</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E416" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H416" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="F416" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G416" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="H416" s="3" t="s">
+    </row>
+    <row r="417" ht="22" customHeight="true">
+      <c r="A417" s="3" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="417" ht="33" customHeight="true">
-      <c r="A417" s="3" t="s">
+      <c r="B417" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="B417" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="C417" s="3" t="s">
         <v>39</v>
       </c>
@@ -14525,19 +14538,19 @@
         <v>13</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="F417" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="418" ht="33" customHeight="true">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="418" ht="22" customHeight="true">
       <c r="A418" s="3" t="s">
         <v>1127</v>
       </c>
@@ -14545,30 +14558,30 @@
         <v>1128</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>153</v>
+        <v>1129</v>
       </c>
       <c r="F418" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>83</v>
+        <v>830</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="419" ht="33" customHeight="true">
       <c r="A419" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1131</v>
+        <v>287</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>39</v>
@@ -14577,68 +14590,68 @@
         <v>13</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>572</v>
+        <v>288</v>
       </c>
       <c r="F419" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>1132</v>
+        <v>289</v>
       </c>
     </row>
     <row r="420" ht="33" customHeight="true">
       <c r="A420" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B420" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="C420" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H420" s="3" t="s">
         <v>1134</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E420" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F420" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G420" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H420" s="3" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="421" ht="33" customHeight="true">
       <c r="A421" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B421" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="C421" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H421" s="3" t="s">
         <v>1137</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E421" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F421" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G421" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="H421" s="3" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="422" ht="33" customHeight="true">
@@ -14646,259 +14659,259 @@
         <v>1138</v>
       </c>
       <c r="B422" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="423" ht="33" customHeight="true">
+      <c r="A423" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="424" ht="33" customHeight="true">
+      <c r="A424" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B424" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C422" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E422" s="3" t="s">
+      <c r="C424" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E424" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F422" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G422" s="3" t="s">
+      <c r="F424" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G424" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H422" s="3" t="s">
+      <c r="H424" s="3" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="423" ht="22" customHeight="true">
-      <c r="A423" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E423" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F423" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G423" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H423" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="424" ht="22" customHeight="true">
-      <c r="A424" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D424" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E424" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F424" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G424" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H424" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="425" ht="22" customHeight="true">
       <c r="A425" s="3" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>186</v>
+        <v>1146</v>
       </c>
       <c r="F425" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>842</v>
+        <v>209</v>
       </c>
     </row>
     <row r="426" ht="22" customHeight="true">
       <c r="A426" s="3" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B426" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="427" ht="22" customHeight="true">
+      <c r="A427" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="428" ht="22" customHeight="true">
+      <c r="A428" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B428" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C426" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E426" s="3" t="s">
+      <c r="C428" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E428" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F426" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G426" s="3" t="s">
+      <c r="F428" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G428" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="H426" s="3" t="s">
+      <c r="H428" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="427" ht="33" customHeight="true">
-      <c r="A427" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E427" s="3" t="s">
+    <row r="429" ht="33" customHeight="true">
+      <c r="A429" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E429" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F427" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G427" s="3" t="s">
+      <c r="F429" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G429" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H427" s="3" t="s">
+      <c r="H429" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="428" ht="33" customHeight="true">
-      <c r="A428" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E428" s="3" t="s">
+    <row r="430" ht="33" customHeight="true">
+      <c r="A430" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E430" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F428" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G428" s="3" t="s">
+      <c r="F430" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G430" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H428" s="3" t="s">
+      <c r="H430" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="429" ht="22" customHeight="true">
-      <c r="A429" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C429" s="3" t="s">
+    <row r="431" ht="22" customHeight="true">
+      <c r="A431" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D429" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E429" s="3" t="s">
+      <c r="D431" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E431" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F429" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G429" s="3" t="s">
+      <c r="F431" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G431" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H429" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="430" ht="22" customHeight="true">
-      <c r="A430" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E430" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F430" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G430" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H430" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="431" ht="33" customHeight="true">
-      <c r="A431" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E431" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F431" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G431" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="H431" s="3" t="s">
-        <v>1156</v>
+        <v>908</v>
       </c>
     </row>
     <row r="432" ht="22" customHeight="true">
@@ -14924,10 +14937,10 @@
         <v>49</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="433" ht="22" customHeight="true">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="433" ht="33" customHeight="true">
       <c r="A433" s="3" t="s">
         <v>1159</v>
       </c>
@@ -14935,25 +14948,25 @@
         <v>1160</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E433" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H433" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="F433" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G433" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="H433" s="3" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="434" ht="33" customHeight="true">
+    </row>
+    <row r="434" ht="22" customHeight="true">
       <c r="A434" s="3" t="s">
         <v>1162</v>
       </c>
@@ -14964,27 +14977,27 @@
         <v>18</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>838</v>
+        <v>173</v>
       </c>
       <c r="F434" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>1164</v>
+        <v>908</v>
       </c>
     </row>
     <row r="435" ht="22" customHeight="true">
       <c r="A435" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B435" s="3" t="s">
         <v>1165</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>1166</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>10</v>
@@ -14993,50 +15006,50 @@
         <v>11</v>
       </c>
       <c r="E435" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="436" ht="33" customHeight="true">
+      <c r="A436" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E436" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="F435" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G435" s="3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H435" s="3" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="436" ht="22" customHeight="true">
-      <c r="A436" s="3" t="s">
+      <c r="F436" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H436" s="3" t="s">
         <v>1169</v>
-      </c>
-      <c r="B436" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E436" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F436" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G436" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H436" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="437" ht="22" customHeight="true">
       <c r="A437" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B437" s="3" t="s">
         <v>1171</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>1172</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>10</v>
@@ -15045,24 +15058,24 @@
         <v>11</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>105</v>
+        <v>838</v>
       </c>
       <c r="F437" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>32</v>
+        <v>1172</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="438" ht="33" customHeight="true">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="438" ht="22" customHeight="true">
       <c r="A438" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>10</v>
@@ -15071,42 +15084,94 @@
         <v>11</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>31</v>
+        <v>1146</v>
       </c>
       <c r="F438" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="439" ht="22" customHeight="true">
       <c r="A439" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E439" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="440" ht="33" customHeight="true">
+      <c r="A440" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="441" ht="22" customHeight="true">
+      <c r="A441" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E441" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F439" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G439" s="3" t="s">
+      <c r="F441" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G441" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H439" s="3" t="s">
-        <v>1177</v>
+      <c r="H441" s="3" t="s">
+        <v>1182</v>
       </c>
     </row>
   </sheetData>

--- a/data/Загрузка справочник АСТ.xlsx
+++ b/data/Загрузка справочник АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="1181">
   <si>
     <t>Артикул</t>
   </si>
@@ -2918,12 +2918,6 @@
   </si>
   <si>
     <t>113014</t>
-  </si>
-  <si>
-    <t>113015</t>
-  </si>
-  <si>
-    <t>Пакет на вынос [120+80]х250 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
   </si>
   <si>
     <t>113016</t>
@@ -3694,7 +3688,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H441"/>
+  <dimension ref="H440"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -12527,7 +12521,7 @@
         <v>965</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>966</v>
+        <v>675</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>39</v>
@@ -12545,67 +12539,67 @@
         <v>676</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>953</v>
+        <v>677</v>
       </c>
     </row>
     <row r="341" ht="33" customHeight="true">
       <c r="A341" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>675</v>
+        <v>272</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>572</v>
+        <v>273</v>
       </c>
       <c r="F341" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>676</v>
+        <v>187</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>677</v>
+        <v>274</v>
       </c>
     </row>
     <row r="342" ht="33" customHeight="true">
       <c r="A342" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B342" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="B342" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="C342" s="3" t="s">
-        <v>39</v>
+        <v>730</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>273</v>
+        <v>969</v>
       </c>
       <c r="F342" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>274</v>
+        <v>970</v>
       </c>
     </row>
     <row r="343" ht="33" customHeight="true">
       <c r="A343" s="3" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>730</v>
@@ -12614,7 +12608,7 @@
         <v>13</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>13</v>
@@ -12623,15 +12617,15 @@
         <v>54</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="344" ht="33" customHeight="true">
       <c r="A344" s="3" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>730</v>
@@ -12640,7 +12634,7 @@
         <v>13</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F344" s="3" t="s">
         <v>13</v>
@@ -12649,15 +12643,15 @@
         <v>54</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="345" ht="33" customHeight="true">
       <c r="A345" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>730</v>
@@ -12666,7 +12660,7 @@
         <v>13</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F345" s="3" t="s">
         <v>13</v>
@@ -12675,15 +12669,15 @@
         <v>54</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="346" ht="33" customHeight="true">
       <c r="A346" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>730</v>
@@ -12692,7 +12686,7 @@
         <v>13</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F346" s="3" t="s">
         <v>13</v>
@@ -12701,7 +12695,7 @@
         <v>54</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
     </row>
     <row r="347" ht="33" customHeight="true">
@@ -12718,7 +12712,7 @@
         <v>13</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F347" s="3" t="s">
         <v>13</v>
@@ -12727,7 +12721,7 @@
         <v>54</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="348" ht="33" customHeight="true">
@@ -12744,7 +12738,7 @@
         <v>13</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F348" s="3" t="s">
         <v>13</v>
@@ -12753,7 +12747,7 @@
         <v>54</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="349" ht="33" customHeight="true">
@@ -12770,7 +12764,7 @@
         <v>13</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F349" s="3" t="s">
         <v>13</v>
@@ -12779,41 +12773,41 @@
         <v>54</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="350" ht="33" customHeight="true">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="350" ht="22" customHeight="true">
       <c r="A350" s="3" t="s">
         <v>988</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>989</v>
+        <v>332</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>730</v>
+        <v>39</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>971</v>
+        <v>255</v>
       </c>
       <c r="F350" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>981</v>
+        <v>330</v>
       </c>
     </row>
     <row r="351" ht="22" customHeight="true">
       <c r="A351" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B351" s="3" t="s">
         <v>990</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>39</v>
@@ -12839,7 +12833,7 @@
         <v>991</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>992</v>
+        <v>334</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>39</v>
@@ -12860,12 +12854,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="353" ht="22" customHeight="true">
+    <row r="353" ht="33" customHeight="true">
       <c r="A353" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>39</v>
@@ -12880,18 +12874,18 @@
         <v>13</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
     </row>
     <row r="354" ht="33" customHeight="true">
       <c r="A354" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>254</v>
+        <v>485</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>39</v>
@@ -12906,36 +12900,36 @@
         <v>13</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="355" ht="33" customHeight="true">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="355" ht="22" customHeight="true">
       <c r="A355" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B355" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="B355" s="3" t="s">
-        <v>485</v>
-      </c>
       <c r="C355" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="F355" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>427</v>
+        <v>208</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>486</v>
+        <v>209</v>
       </c>
     </row>
     <row r="356" ht="22" customHeight="true">
@@ -12969,7 +12963,7 @@
         <v>998</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>999</v>
+        <v>206</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>10</v>
@@ -12978,7 +12972,7 @@
         <v>11</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="F357" s="3" t="s">
         <v>13</v>
@@ -12990,38 +12984,38 @@
         <v>209</v>
       </c>
     </row>
-    <row r="358" ht="22" customHeight="true">
+    <row r="358" ht="33" customHeight="true">
       <c r="A358" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="B358" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="C358" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>209</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="359" ht="33" customHeight="true">
       <c r="A359" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1002</v>
+        <v>321</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>39</v>
@@ -13039,15 +13033,15 @@
         <v>280</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>1003</v>
+        <v>285</v>
       </c>
     </row>
     <row r="360" ht="33" customHeight="true">
       <c r="A360" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>39</v>
@@ -13065,15 +13059,15 @@
         <v>280</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
     <row r="361" ht="33" customHeight="true">
       <c r="A361" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>39</v>
@@ -13091,15 +13085,15 @@
         <v>280</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="362" ht="33" customHeight="true">
       <c r="A362" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>39</v>
@@ -13117,15 +13111,15 @@
         <v>280</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="363" ht="33" customHeight="true">
       <c r="A363" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>39</v>
@@ -13143,15 +13137,15 @@
         <v>280</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="364" ht="33" customHeight="true">
       <c r="A364" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B364" s="3" t="s">
         <v>1008</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>39</v>
@@ -13169,15 +13163,15 @@
         <v>280</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>327</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="365" ht="33" customHeight="true">
       <c r="A365" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>39</v>
@@ -13195,15 +13189,15 @@
         <v>280</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="366" ht="33" customHeight="true">
       <c r="A366" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>39</v>
@@ -13221,15 +13215,15 @@
         <v>280</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="367" ht="33" customHeight="true">
       <c r="A367" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>39</v>
@@ -13247,7 +13241,7 @@
         <v>280</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>1017</v>
+        <v>327</v>
       </c>
     </row>
     <row r="368" ht="33" customHeight="true">
@@ -13273,15 +13267,15 @@
         <v>280</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>327</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="369" ht="33" customHeight="true">
       <c r="A369" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>39</v>
@@ -13299,7 +13293,7 @@
         <v>280</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>1022</v>
+        <v>312</v>
       </c>
     </row>
     <row r="370" ht="33" customHeight="true">
@@ -13325,7 +13319,7 @@
         <v>280</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>312</v>
+        <v>876</v>
       </c>
     </row>
     <row r="371" ht="33" customHeight="true">
@@ -13333,7 +13327,7 @@
         <v>1025</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1026</v>
+        <v>323</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>39</v>
@@ -13351,15 +13345,15 @@
         <v>280</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>876</v>
+        <v>324</v>
       </c>
     </row>
     <row r="372" ht="33" customHeight="true">
       <c r="A372" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>1027</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>39</v>
@@ -13377,15 +13371,15 @@
         <v>280</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>324</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="373" ht="33" customHeight="true">
       <c r="A373" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>39</v>
@@ -13403,15 +13397,15 @@
         <v>280</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="374" ht="33" customHeight="true">
       <c r="A374" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>39</v>
@@ -13429,7 +13423,7 @@
         <v>280</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="375" ht="33" customHeight="true">
@@ -13455,7 +13449,7 @@
         <v>280</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="376" ht="33" customHeight="true">
@@ -13463,7 +13457,7 @@
         <v>1036</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1037</v>
+        <v>305</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>39</v>
@@ -13481,15 +13475,15 @@
         <v>280</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>1030</v>
+        <v>306</v>
       </c>
     </row>
     <row r="377" ht="33" customHeight="true">
       <c r="A377" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B377" s="3" t="s">
         <v>1038</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>39</v>
@@ -13507,7 +13501,7 @@
         <v>280</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="378" ht="33" customHeight="true">
@@ -13515,7 +13509,7 @@
         <v>1039</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1040</v>
+        <v>323</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>39</v>
@@ -13536,64 +13530,64 @@
         <v>324</v>
       </c>
     </row>
-    <row r="379" ht="33" customHeight="true">
+    <row r="379" ht="22" customHeight="true">
       <c r="A379" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B379" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="B379" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="C379" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="380" ht="22" customHeight="true">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="380" ht="33" customHeight="true">
       <c r="A380" s="3" t="s">
         <v>1042</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1043</v>
+        <v>245</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="381" ht="33" customHeight="true">
       <c r="A381" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>39</v>
@@ -13616,10 +13610,10 @@
     </row>
     <row r="382" ht="33" customHeight="true">
       <c r="A382" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>39</v>
@@ -13640,12 +13634,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="383" ht="33" customHeight="true">
+    <row r="383" ht="22" customHeight="true">
       <c r="A383" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>240</v>
+        <v>844</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>39</v>
@@ -13660,18 +13654,18 @@
         <v>13</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="384" ht="22" customHeight="true">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="384" ht="33" customHeight="true">
       <c r="A384" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B384" s="3" t="s">
         <v>1047</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>844</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>39</v>
@@ -13686,18 +13680,18 @@
         <v>13</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="385" ht="33" customHeight="true">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="385" ht="22" customHeight="true">
       <c r="A385" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1049</v>
+        <v>799</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>39</v>
@@ -13712,19 +13706,19 @@
         <v>13</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="386" ht="22" customHeight="true">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="386" ht="33" customHeight="true">
       <c r="A386" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B386" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="B386" s="3" t="s">
-        <v>799</v>
-      </c>
       <c r="C386" s="3" t="s">
         <v>39</v>
       </c>
@@ -13732,16 +13726,16 @@
         <v>13</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>186</v>
+        <v>572</v>
       </c>
       <c r="F386" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>364</v>
+        <v>701</v>
       </c>
     </row>
     <row r="387" ht="33" customHeight="true">
@@ -13755,7 +13749,7 @@
         <v>39</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>572</v>
@@ -13764,10 +13758,10 @@
         <v>13</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="388" ht="33" customHeight="true">
@@ -13784,16 +13778,16 @@
         <v>11</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>572</v>
+        <v>500</v>
       </c>
       <c r="F388" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>704</v>
+        <v>521</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>705</v>
+        <v>650</v>
       </c>
     </row>
     <row r="389" ht="33" customHeight="true">
@@ -13807,19 +13801,19 @@
         <v>39</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>500</v>
+        <v>407</v>
       </c>
       <c r="F389" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>650</v>
+        <v>554</v>
       </c>
     </row>
     <row r="390" ht="33" customHeight="true">
@@ -13833,27 +13827,27 @@
         <v>39</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>407</v>
+        <v>1059</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>547</v>
+        <v>350</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="391" ht="33" customHeight="true">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="391" ht="22" customHeight="true">
       <c r="A391" s="3" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>39</v>
@@ -13862,33 +13856,33 @@
         <v>11</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="F391" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="392" ht="22" customHeight="true">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="392" ht="33" customHeight="true">
       <c r="A392" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E392" s="3" t="s">
         <v>1063</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E392" s="3" t="s">
-        <v>1065</v>
       </c>
       <c r="F392" s="3" t="s">
         <v>13</v>
@@ -13897,10 +13891,10 @@
         <v>83</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="393" ht="33" customHeight="true">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="393" ht="22" customHeight="true">
       <c r="A393" s="3" t="s">
         <v>1067</v>
       </c>
@@ -13914,7 +13908,7 @@
         <v>11</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F393" s="3" t="s">
         <v>13</v>
@@ -13923,10 +13917,10 @@
         <v>83</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="394" ht="22" customHeight="true">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="394" ht="33" customHeight="true">
       <c r="A394" s="3" t="s">
         <v>1069</v>
       </c>
@@ -13937,19 +13931,19 @@
         <v>39</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>1065</v>
+        <v>572</v>
       </c>
       <c r="F394" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>83</v>
+        <v>704</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>1066</v>
+        <v>708</v>
       </c>
     </row>
     <row r="395" ht="33" customHeight="true">
@@ -13963,53 +13957,53 @@
         <v>39</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>572</v>
+        <v>105</v>
       </c>
       <c r="F395" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>708</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="396" ht="33" customHeight="true">
       <c r="A396" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="F396" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>656</v>
+        <v>280</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="397" ht="33" customHeight="true">
       <c r="A397" s="3" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>39</v>
@@ -14027,7 +14021,7 @@
         <v>280</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>1078</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="398" ht="33" customHeight="true">
@@ -14053,7 +14047,7 @@
         <v>280</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>1022</v>
+        <v>876</v>
       </c>
     </row>
     <row r="399" ht="33" customHeight="true">
@@ -14079,7 +14073,7 @@
         <v>280</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>876</v>
+        <v>296</v>
       </c>
     </row>
     <row r="400" ht="33" customHeight="true">
@@ -14096,16 +14090,16 @@
         <v>13</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>288</v>
+        <v>500</v>
       </c>
       <c r="F400" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>280</v>
+        <v>427</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>296</v>
+        <v>492</v>
       </c>
     </row>
     <row r="401" ht="33" customHeight="true">
@@ -14128,18 +14122,18 @@
         <v>13</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>427</v>
+        <v>1087</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>492</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="402" ht="33" customHeight="true">
       <c r="A402" s="3" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>39</v>
@@ -14148,24 +14142,24 @@
         <v>13</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="F402" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>1089</v>
+        <v>676</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="403" ht="33" customHeight="true">
       <c r="A403" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>39</v>
@@ -14183,7 +14177,7 @@
         <v>676</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>1093</v>
+        <v>677</v>
       </c>
     </row>
     <row r="404" ht="33" customHeight="true">
@@ -14206,18 +14200,18 @@
         <v>13</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>677</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="405" ht="33" customHeight="true">
       <c r="A405" s="3" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>39</v>
@@ -14226,16 +14220,16 @@
         <v>13</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>572</v>
+        <v>500</v>
       </c>
       <c r="F405" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>700</v>
+        <v>521</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>1098</v>
+        <v>561</v>
       </c>
     </row>
     <row r="406" ht="33" customHeight="true">
@@ -14246,129 +14240,129 @@
         <v>1100</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>500</v>
+        <v>726</v>
       </c>
       <c r="F406" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>521</v>
+        <v>1101</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="407" ht="33" customHeight="true">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="407" ht="22" customHeight="true">
       <c r="A407" s="3" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1102</v>
+        <v>692</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>726</v>
+        <v>186</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>1103</v>
+        <v>694</v>
       </c>
       <c r="H407" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="408" ht="33" customHeight="true">
+      <c r="A408" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="408" ht="22" customHeight="true">
-      <c r="A408" s="3" t="s">
+      <c r="B408" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="B408" s="3" t="s">
-        <v>692</v>
-      </c>
       <c r="C408" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>694</v>
+        <v>187</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>695</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="409" ht="33" customHeight="true">
       <c r="A409" s="3" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>288</v>
+        <v>838</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="410" ht="33" customHeight="true">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="410" ht="22" customHeight="true">
       <c r="A410" s="3" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>838</v>
+        <v>186</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="411" ht="22" customHeight="true">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="411" ht="33" customHeight="true">
       <c r="A411" s="3" t="s">
         <v>1112</v>
       </c>
@@ -14382,16 +14376,16 @@
         <v>13</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>186</v>
+        <v>500</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>845</v>
+        <v>274</v>
       </c>
     </row>
     <row r="412" ht="33" customHeight="true">
@@ -14408,16 +14402,16 @@
         <v>13</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>500</v>
+        <v>407</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>274</v>
+        <v>428</v>
       </c>
     </row>
     <row r="413" ht="33" customHeight="true">
@@ -14443,7 +14437,7 @@
         <v>427</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="414" ht="33" customHeight="true">
@@ -14469,7 +14463,7 @@
         <v>427</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="415" ht="33" customHeight="true">
@@ -14486,7 +14480,7 @@
         <v>13</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>407</v>
+        <v>255</v>
       </c>
       <c r="F415" s="3" t="s">
         <v>13</v>
@@ -14495,15 +14489,15 @@
         <v>427</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="416" ht="33" customHeight="true">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="416" ht="22" customHeight="true">
       <c r="A416" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>39</v>
@@ -14512,16 +14506,16 @@
         <v>13</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="F416" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>427</v>
+        <v>49</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>1124</v>
+        <v>845</v>
       </c>
     </row>
     <row r="417" ht="22" customHeight="true">
@@ -14532,108 +14526,108 @@
         <v>1126</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>186</v>
+        <v>1127</v>
       </c>
       <c r="F417" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>49</v>
+        <v>830</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="418" ht="22" customHeight="true">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="418" ht="33" customHeight="true">
       <c r="A418" s="3" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1128</v>
+        <v>287</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>1129</v>
+        <v>288</v>
       </c>
       <c r="F418" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>830</v>
+        <v>280</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>1130</v>
+        <v>289</v>
       </c>
     </row>
     <row r="419" ht="33" customHeight="true">
       <c r="A419" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B419" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="B419" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="C419" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="F419" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>289</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="420" ht="33" customHeight="true">
       <c r="A420" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>153</v>
+        <v>572</v>
       </c>
       <c r="F420" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>83</v>
+        <v>700</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="421" ht="33" customHeight="true">
       <c r="A421" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>39</v>
@@ -14642,24 +14636,24 @@
         <v>13</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>572</v>
+        <v>500</v>
       </c>
       <c r="F421" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>700</v>
+        <v>1087</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="422" ht="33" customHeight="true">
       <c r="A422" s="3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>39</v>
@@ -14674,10 +14668,10 @@
         <v>13</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>1089</v>
+        <v>427</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>1140</v>
+        <v>492</v>
       </c>
     </row>
     <row r="423" ht="33" customHeight="true">
@@ -14685,103 +14679,103 @@
         <v>1141</v>
       </c>
       <c r="B423" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="424" ht="22" customHeight="true">
+      <c r="A424" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="C423" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E423" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F423" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G423" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="H423" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="424" ht="33" customHeight="true">
-      <c r="A424" s="3" t="s">
+      <c r="B424" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="B424" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="C424" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>186</v>
+        <v>1144</v>
       </c>
       <c r="F424" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="425" ht="22" customHeight="true">
       <c r="A425" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1145</v>
+        <v>62</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>1146</v>
+        <v>63</v>
       </c>
       <c r="F425" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
     </row>
     <row r="426" ht="22" customHeight="true">
       <c r="A426" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B426" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="B426" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C426" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="F426" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H426" s="3" t="s">
-        <v>65</v>
+        <v>842</v>
       </c>
     </row>
     <row r="427" ht="22" customHeight="true">
@@ -14789,13 +14783,13 @@
         <v>1148</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1149</v>
+        <v>353</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>186</v>
@@ -14804,19 +14798,19 @@
         <v>13</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>49</v>
+        <v>350</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="428" ht="22" customHeight="true">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="428" ht="33" customHeight="true">
       <c r="A428" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B428" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="B428" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="C428" s="3" t="s">
         <v>39</v>
       </c>
@@ -14824,16 +14818,16 @@
         <v>13</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="F428" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
     </row>
     <row r="429" ht="33" customHeight="true">
@@ -14859,10 +14853,10 @@
         <v>280</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="430" ht="33" customHeight="true">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="430" ht="22" customHeight="true">
       <c r="A430" s="3" t="s">
         <v>1153</v>
       </c>
@@ -14870,22 +14864,22 @@
         <v>1154</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="F430" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>327</v>
+        <v>908</v>
       </c>
     </row>
     <row r="431" ht="22" customHeight="true">
@@ -14914,7 +14908,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="432" ht="22" customHeight="true">
+    <row r="432" ht="33" customHeight="true">
       <c r="A432" s="3" t="s">
         <v>1157</v>
       </c>
@@ -14922,48 +14916,48 @@
         <v>1158</v>
       </c>
       <c r="C432" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="433" ht="22" customHeight="true">
+      <c r="A433" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C433" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D432" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E432" s="3" t="s">
+      <c r="D433" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E433" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F432" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G432" s="3" t="s">
+      <c r="F433" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G433" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H432" s="3" t="s">
+      <c r="H433" s="3" t="s">
         <v>908</v>
-      </c>
-    </row>
-    <row r="433" ht="33" customHeight="true">
-      <c r="A433" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E433" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F433" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G433" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H433" s="3" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="434" ht="22" customHeight="true">
@@ -14974,59 +14968,59 @@
         <v>1163</v>
       </c>
       <c r="C434" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="435" ht="33" customHeight="true">
+      <c r="A435" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C435" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D434" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E434" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F434" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G434" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H434" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="435" ht="22" customHeight="true">
-      <c r="A435" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C435" s="3" t="s">
+      <c r="D435" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="436" ht="22" customHeight="true">
+      <c r="A436" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C436" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E435" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F435" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G435" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="H435" s="3" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="436" ht="33" customHeight="true">
-      <c r="A436" s="3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B436" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>11</v>
@@ -15038,18 +15032,18 @@
         <v>13</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>59</v>
+        <v>1170</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="437" ht="22" customHeight="true">
       <c r="A437" s="3" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>10</v>
@@ -15058,16 +15052,16 @@
         <v>11</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>838</v>
+        <v>1144</v>
       </c>
       <c r="F437" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>1172</v>
+        <v>208</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>1173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="438" ht="22" customHeight="true">
@@ -15084,19 +15078,19 @@
         <v>11</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>1146</v>
+        <v>105</v>
       </c>
       <c r="F438" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="439" ht="22" customHeight="true">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="439" ht="33" customHeight="true">
       <c r="A439" s="3" t="s">
         <v>1176</v>
       </c>
@@ -15110,7 +15104,7 @@
         <v>11</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="F439" s="3" t="s">
         <v>13</v>
@@ -15119,10 +15113,10 @@
         <v>32</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="440" ht="33" customHeight="true">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="440" ht="22" customHeight="true">
       <c r="A440" s="3" t="s">
         <v>1178</v>
       </c>
@@ -15130,48 +15124,22 @@
         <v>1179</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="F440" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="441" ht="22" customHeight="true">
-      <c r="A441" s="3" t="s">
         <v>1180</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E441" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F441" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G441" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H441" s="3" t="s">
-        <v>1182</v>
       </c>
     </row>
   </sheetData>

--- a/data/Загрузка справочник АСТ.xlsx
+++ b/data/Загрузка справочник АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1184">
   <si>
     <t>Артикул</t>
   </si>
@@ -1138,7 +1138,7 @@
     <t>Размешиватель 120 мм, бел., ПС, 500 шт/упак (ООО РТС)</t>
   </si>
   <si>
-    <t>РТС (Радиотехнические Системы) ООО</t>
+    <t>РТС ПЛАСТИК ООО</t>
   </si>
   <si>
     <t>Размешиватели пластиковые белые, прозрачные</t>
@@ -1723,6 +1723,18 @@
     <t>Упаковка [коробка] для сэндвичей 130х130х60 мм, с окном, неразъем.крышка, крафт, карт., 50 шт/упак "</t>
   </si>
   <si>
+    <t>106065</t>
+  </si>
+  <si>
+    <t>Лоток [короб] для фастфуда 165х70х40 мм, крафт, карт., 50 шт/упак "OSQ" Eco HD Bio</t>
+  </si>
+  <si>
+    <t>Упаковка пищевая бумажная</t>
+  </si>
+  <si>
+    <t>Короба без крышки (лотки) для бургеров и хот-догов</t>
+  </si>
+  <si>
     <t>106087</t>
   </si>
   <si>
@@ -1732,9 +1744,6 @@
     <t>ТЕК-ПАК ООО</t>
   </si>
   <si>
-    <t>Упаковка пищевая бумажная</t>
-  </si>
-  <si>
     <t>Обертка для бургеров без печати</t>
   </si>
   <si>
@@ -1951,6 +1960,9 @@
     <t>Контейнер 550 мл, 130х130х49 мм, без окна, без крышки, крафт, карт., 50 шт/упак "OSQ" Eco SmartPack</t>
   </si>
   <si>
+    <t>104407</t>
+  </si>
+  <si>
     <t>104411</t>
   </si>
   <si>
@@ -2395,6 +2407,12 @@
     <t>Коробки для лапши с прямоугольным дном без дизайна</t>
   </si>
   <si>
+    <t>111452</t>
+  </si>
+  <si>
+    <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
+  </si>
+  <si>
     <t>111453</t>
   </si>
   <si>
@@ -2467,381 +2485,375 @@
     <t>Трубочки для коктейлей 210 мм, d7 мм, цвет в ассорт., пласт. прямые, 250 шт/упак (ООО Экстралайн)</t>
   </si>
   <si>
-    <t>111837</t>
+    <t>111884</t>
+  </si>
+  <si>
+    <t>Крышка для формы алюм. 140х115 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
+  </si>
+  <si>
+    <t>ЛАМКАРТ ООО</t>
+  </si>
+  <si>
+    <t>Крышки для прямоугольных алюминиевых форм до 500 мл</t>
+  </si>
+  <si>
+    <t>111930</t>
+  </si>
+  <si>
+    <t>112087</t>
+  </si>
+  <si>
+    <t>Пленка для запайки лотков 150 мм, 55 мкм, Д, 3 кг, прозр., PET/PE AF "Mealguard"</t>
+  </si>
+  <si>
+    <t>ТК ТАСМА ООО</t>
+  </si>
+  <si>
+    <t>Пленки пищевые</t>
+  </si>
+  <si>
+    <t>Пленки для запайки лотков</t>
+  </si>
+  <si>
+    <t>112168</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 300 мл, прозр., горло d38 мм, крышка в компл., 300 шт/кор (ИП PET Service)</t>
+  </si>
+  <si>
+    <t>ИП PET Service</t>
+  </si>
+  <si>
+    <t>Бутылки ПЭТ 0.3-0.45 л широкое горло</t>
+  </si>
+  <si>
+    <t>112214</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров 230х205 мм 1-сл. V-сложен., бел., 250 лист/упак "Focus" Eco</t>
+  </si>
+  <si>
+    <t>ХАЯТ МАРКЕТИНГ ООО</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров V-сложение 1-слойные из макулатуры</t>
+  </si>
+  <si>
+    <t>112277</t>
+  </si>
+  <si>
+    <t>Перец порционный 0,3 г, стик, 3000 шт/кор (ООО Хорта)</t>
+  </si>
+  <si>
+    <t>Перец</t>
+  </si>
+  <si>
+    <t>112278</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>Сахар</t>
+  </si>
+  <si>
+    <t>112282</t>
+  </si>
+  <si>
+    <t>Соль порционная 1 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>Соль</t>
+  </si>
+  <si>
+    <t>112294</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 250х350 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>Пакеты вакуумные 65 (70) мкм</t>
+  </si>
+  <si>
+    <t>112298</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d8 мм, черн., пласт. прямые в инд. упаковке, 500 шт/упак (ООО Экстрал</t>
+  </si>
+  <si>
+    <t>112304</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 110х160 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112306</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112308</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112309</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 150х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112311</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 250х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112338</t>
+  </si>
+  <si>
+    <t>Лоток [короб] для фастфуда 190х85х42 мм, крафт-бел., карт., 400 шт/кор "OSQ" Tray 800 nol</t>
+  </si>
+  <si>
+    <t>112340</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+  </si>
+  <si>
+    <t>112341</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>112345</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 160х210 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112402</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 2 сл., d80 мм, крафт, карт., 25 шт/упак (ООО Бум Кап)</t>
+  </si>
+  <si>
+    <t>БУМ КАП ООО</t>
+  </si>
+  <si>
+    <t>Стаканы бумажные 250-290 мл белые, крафт 2-слойные</t>
+  </si>
+  <si>
+    <t>112413</t>
+  </si>
+  <si>
+    <t>Форма алюминиевая 1-секц. 1125 мл 225х175х35 мм, без крышки, алюм., 50 шт/упак (ООО Русал)</t>
+  </si>
+  <si>
+    <t>112416</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 60 л, 62х74 см, черн., ПНД, 50 шт/рул "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>112547</t>
+  </si>
+  <si>
+    <t>Ведро пищевое 1000 мл, d132хh121 мм, с ручкой, без крышки, прозр., ПП, 100 шт/кор (ООО Джокей)</t>
+  </si>
+  <si>
+    <t>Ведра пищевые 1.0-1.9 л</t>
+  </si>
+  <si>
+    <t>112551</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру для пресервов [ведру] d132 мм, прозр., ПП, 1300 шт/кор "Джокей"</t>
+  </si>
+  <si>
+    <t>Крышки к ведрам и контейнерам для пресервов и меда D 123-149 мм</t>
+  </si>
+  <si>
+    <t>112533</t>
+  </si>
+  <si>
+    <t>Крышка для формы алюм. 213х109 мм, карт.фольг., 50 шт/упак (ООО Ламкарт)</t>
+  </si>
+  <si>
+    <t>Крышки для прямоугольных алюминиевых форм 500-749 мл</t>
+  </si>
+  <si>
+    <t>112625</t>
+  </si>
+  <si>
+    <t>Упаковка с ложементом 160х120х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
+  </si>
+  <si>
+    <t>Упаковка для кондитерских изделий картонная с окном</t>
+  </si>
+  <si>
+    <t>112626</t>
+  </si>
+  <si>
+    <t>Упаковка с ложементом 200х120х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
+  </si>
+  <si>
+    <t>112636</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл, d150хh60 мм, без окна, без крышки, крафт-бел., карт., 45 шт/упак "OSQ" Round Bowl </t>
+  </si>
+  <si>
+    <t>Контейнеры универсальные картонные круглые от 500 мл</t>
+  </si>
+  <si>
+    <t>112637</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d150хh40 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl flat lid</t>
+  </si>
+  <si>
+    <t>Крышки к круглым контейнерам универсальные ПЭТ</t>
+  </si>
+  <si>
+    <t>112651</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, желт., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112682</t>
+  </si>
+  <si>
+    <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>Зубочистки в индивидуальной бумажной упаковке</t>
+  </si>
+  <si>
+    <t>112683</t>
+  </si>
+  <si>
+    <t>Палочки для шашлыка 250 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>Палочки для шашлыка</t>
+  </si>
+  <si>
+    <t>112685</t>
+  </si>
+  <si>
+    <t>Пика 100 мм, диз. "Узелок", беж., бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112686</t>
+  </si>
+  <si>
+    <t>Пика 60 мм, диз. "Узелок", бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112688</t>
+  </si>
+  <si>
+    <t>Размешиватель 170 мм, бамбук, 500 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112689</t>
+  </si>
+  <si>
+    <t>Размешиватель 190 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112690</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112691</t>
+  </si>
+  <si>
+    <t>Размешиватель 170 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112692</t>
+  </si>
+  <si>
+    <t>Зубочистки 65 мм в стакане, бамбук, 200 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>Зубочистки в стакане</t>
+  </si>
+  <si>
+    <t>112713</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>112725</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>112788</t>
+  </si>
+  <si>
+    <t>112789</t>
+  </si>
+  <si>
+    <t>112790</t>
+  </si>
+  <si>
+    <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112792</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
+  </si>
+  <si>
+    <t>Вилки пластиковые белые до 165 мм</t>
+  </si>
+  <si>
+    <t>112793</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112794</t>
+  </si>
+  <si>
+    <t>Нож одноразовый 165 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>Ножи пластиковые белые</t>
+  </si>
+  <si>
+    <t>112795</t>
+  </si>
+  <si>
+    <t>112803</t>
+  </si>
+  <si>
+    <t>Средство для мытья пола и твердых поверхностей "Platinum Sharks", канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>Средства бытовые для мытья полов от 3.5 л</t>
+  </si>
+  <si>
+    <t>112806</t>
   </si>
   <si>
     <t>Обертка для бургеров и хот-догов 305х305 мм, бел., бум., 1000 шт/кор (ООО Тек-Пак)</t>
   </si>
   <si>
-    <t>111884</t>
-  </si>
-  <si>
-    <t>Крышка для формы алюм. 140х115 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
-  </si>
-  <si>
-    <t>ЛАМКАРТ ООО</t>
-  </si>
-  <si>
-    <t>Крышки для прямоугольных алюминиевых форм до 500 мл</t>
-  </si>
-  <si>
-    <t>111930</t>
-  </si>
-  <si>
-    <t>112087</t>
-  </si>
-  <si>
-    <t>Пленка для запайки лотков 150 мм, 55 мкм, Д, 3 кг, прозр., PET/PE AF "Mealguard"</t>
-  </si>
-  <si>
-    <t>ТК ТАСМА ООО</t>
-  </si>
-  <si>
-    <t>Пленки пищевые</t>
-  </si>
-  <si>
-    <t>Пленки для запайки лотков</t>
-  </si>
-  <si>
-    <t>112168</t>
-  </si>
-  <si>
-    <t>Бутылка ПЭТ 300 мл, прозр., горло d38 мм, крышка в компл., 300 шт/кор (ИП PET Service)</t>
-  </si>
-  <si>
-    <t>ИП PET Service</t>
-  </si>
-  <si>
-    <t>Бутылки ПЭТ 0.3-0.45 л широкое горло</t>
-  </si>
-  <si>
-    <t>112214</t>
-  </si>
-  <si>
-    <t>Полотенца бумажные для диспенсеров 230х205 мм 1-сл. V-сложен., бел., 250 лист/упак "Focus" Eco</t>
-  </si>
-  <si>
-    <t>ХАЯТ МАРКЕТИНГ ООО</t>
-  </si>
-  <si>
-    <t>Полотенца бумажные для диспенсеров V-сложение 1-слойные из макулатуры</t>
-  </si>
-  <si>
-    <t>112277</t>
-  </si>
-  <si>
-    <t>Перец порционный 0,3 г, стик, 3000 шт/кор (ООО Хорта)</t>
-  </si>
-  <si>
-    <t>Перец</t>
-  </si>
-  <si>
-    <t>112278</t>
-  </si>
-  <si>
-    <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>Сахар</t>
-  </si>
-  <si>
-    <t>112282</t>
-  </si>
-  <si>
-    <t>Соль порционная 1 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>Соль</t>
-  </si>
-  <si>
-    <t>112294</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 250х350 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
-    <t>Пакеты вакуумные 65 (70) мкм</t>
-  </si>
-  <si>
-    <t>112298</t>
-  </si>
-  <si>
-    <t>Трубочки для коктейлей 210 мм, d8 мм, черн., пласт. прямые в инд. упаковке, 500 шт/упак (ООО Экстрал</t>
-  </si>
-  <si>
-    <t>112304</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 110х160 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
-    <t>112306</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
-    <t>112308</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
-    <t>112309</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 150х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
-    <t>112311</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 250х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
-    <t>112338</t>
-  </si>
-  <si>
-    <t>Лоток [короб] для фастфуда 190х85х42 мм, крафт-бел., карт., 400 шт/кор "OSQ" Tray 800 nol</t>
-  </si>
-  <si>
-    <t>Короба без крышки (лотки) для бургеров и хот-догов</t>
-  </si>
-  <si>
-    <t>112340</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
-  </si>
-  <si>
-    <t>112341</t>
-  </si>
-  <si>
-    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
-  </si>
-  <si>
-    <t>112345</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 160х210 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
-    <t>112402</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 250 мл 2 сл., d80 мм, крафт, карт., 25 шт/упак (ООО Бум Кап)</t>
-  </si>
-  <si>
-    <t>БУМ КАП ООО</t>
-  </si>
-  <si>
-    <t>Стаканы бумажные 250-290 мл белые, крафт 2-слойные</t>
-  </si>
-  <si>
-    <t>112413</t>
-  </si>
-  <si>
-    <t>Форма алюминиевая 1-секц. 1125 мл 225х175х35 мм, без крышки, алюм., 50 шт/упак (ООО Русал)</t>
-  </si>
-  <si>
-    <t>112416</t>
-  </si>
-  <si>
-    <t>Мешок для мусора 60 л, 62х74 см, черн., ПНД, 50 шт/рул "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>112547</t>
-  </si>
-  <si>
-    <t>Ведро пищевое 1000 мл, d132хh121 мм, с ручкой, без крышки, прозр., ПП, 100 шт/кор (ООО Джокей)</t>
-  </si>
-  <si>
-    <t>Ведра пищевые 1.0-1.9 л</t>
-  </si>
-  <si>
-    <t>112551</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру для пресервов [ведру] d132 мм, прозр., ПП, 1300 шт/кор "Джокей"</t>
-  </si>
-  <si>
-    <t>Крышки к ведрам и контейнерам для пресервов и меда D 123-149 мм</t>
-  </si>
-  <si>
-    <t>112533</t>
-  </si>
-  <si>
-    <t>Крышка для формы алюм. 213х109 мм, карт.фольг., 50 шт/упак (ООО Ламкарт)</t>
-  </si>
-  <si>
-    <t>Крышки для прямоугольных алюминиевых форм 500-749 мл</t>
-  </si>
-  <si>
-    <t>112625</t>
-  </si>
-  <si>
-    <t>Упаковка с ложементом 160х120х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
-  </si>
-  <si>
-    <t>Упаковка для кондитерских изделий картонная с окном</t>
-  </si>
-  <si>
-    <t>112626</t>
-  </si>
-  <si>
-    <t>Упаковка с ложементом 200х120х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
-  </si>
-  <si>
-    <t>112636</t>
-  </si>
-  <si>
-    <t>Контейнер 750 мл, d150хh60 мм, без окна, без крышки, крафт-бел., карт., 45 шт/упак "OSQ" Round Bowl </t>
-  </si>
-  <si>
-    <t>Контейнеры универсальные картонные круглые от 500 мл</t>
-  </si>
-  <si>
-    <t>112637</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру d150хh40 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl flat lid</t>
-  </si>
-  <si>
-    <t>Крышки к круглым контейнерам универсальные ПЭТ</t>
-  </si>
-  <si>
-    <t>112651</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, желт., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>112682</t>
-  </si>
-  <si>
-    <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>Зубочистки в индивидуальной бумажной упаковке</t>
-  </si>
-  <si>
-    <t>112683</t>
-  </si>
-  <si>
-    <t>Палочки для шашлыка 250 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>Палочки для шашлыка</t>
-  </si>
-  <si>
-    <t>112685</t>
-  </si>
-  <si>
-    <t>Пика 100 мм, диз. "Узелок", беж., бамбук, 100 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>112686</t>
-  </si>
-  <si>
-    <t>Пика 60 мм, диз. "Узелок", бамбук, 100 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>112688</t>
-  </si>
-  <si>
-    <t>Размешиватель 170 мм, бамбук, 500 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>112689</t>
-  </si>
-  <si>
-    <t>Размешиватель 190 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>112690</t>
-  </si>
-  <si>
-    <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>112691</t>
-  </si>
-  <si>
-    <t>Размешиватель 170 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>112692</t>
-  </si>
-  <si>
-    <t>Зубочистки 65 мм в стакане, бамбук, 200 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>Зубочистки в стакане</t>
-  </si>
-  <si>
-    <t>112713</t>
-  </si>
-  <si>
-    <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
-  </si>
-  <si>
-    <t>112725</t>
-  </si>
-  <si>
-    <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
-  </si>
-  <si>
-    <t>112788</t>
-  </si>
-  <si>
-    <t>112789</t>
-  </si>
-  <si>
-    <t>112790</t>
-  </si>
-  <si>
-    <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>112792</t>
-  </si>
-  <si>
-    <t>Вилка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
-  </si>
-  <si>
-    <t>Вилки пластиковые белые до 165 мм</t>
-  </si>
-  <si>
-    <t>112793</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>112794</t>
-  </si>
-  <si>
-    <t>Нож одноразовый 165 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>Ножи пластиковые белые</t>
-  </si>
-  <si>
-    <t>112795</t>
-  </si>
-  <si>
-    <t>112803</t>
-  </si>
-  <si>
-    <t>Средство для мытья пола и твердых поверхностей "Platinum Sharks", канистра, 5000 мл</t>
-  </si>
-  <si>
-    <t>Средства бытовые для мытья полов от 3.5 л</t>
-  </si>
-  <si>
-    <t>112806</t>
-  </si>
-  <si>
     <t>112807</t>
   </si>
   <si>
@@ -2905,6 +2917,9 @@
     <t>113016</t>
   </si>
   <si>
+    <t>113027</t>
+  </si>
+  <si>
     <t>113028</t>
   </si>
   <si>
@@ -2989,6 +3004,15 @@
     <t>113214</t>
   </si>
   <si>
+    <t>113289</t>
+  </si>
+  <si>
+    <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
+  </si>
+  <si>
+    <t>ПРЕМЬЕР ООО</t>
+  </si>
+  <si>
     <t>113312</t>
   </si>
   <si>
@@ -3322,15 +3346,6 @@
     <t>114035</t>
   </si>
   <si>
-    <t>114067</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с отверстием, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>Крышки из натуральных материалов для стаканов</t>
-  </si>
-  <si>
     <t>114074</t>
   </si>
   <si>
@@ -3470,6 +3485,12 @@
   </si>
   <si>
     <t>Стакан бумажный 400 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>114977</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
   </si>
   <si>
     <t>109019</t>
@@ -3676,7 +3697,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H437"/>
+  <dimension ref="H441"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -8305,68 +8326,68 @@
         <v>39</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E178" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F178" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" s="3" t="s">
+      <c r="H178" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="179" ht="33" customHeight="true">
       <c r="A179" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="C179" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="3" t="s">
+      <c r="F179" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H179" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="180" ht="33" customHeight="true">
       <c r="A180" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="C180" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>573</v>
-      </c>
       <c r="F180" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>577</v>
@@ -8386,13 +8407,13 @@
         <v>11</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>580</v>
@@ -8412,13 +8433,13 @@
         <v>11</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>496</v>
+        <v>576</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>583</v>
@@ -8444,18 +8465,18 @@
         <v>13</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="184" ht="33" customHeight="true">
       <c r="A184" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>39</v>
@@ -8470,10 +8491,10 @@
         <v>13</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="185" ht="33" customHeight="true">
@@ -8496,7 +8517,7 @@
         <v>13</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>591</v>
@@ -8507,13 +8528,13 @@
         <v>592</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>495</v>
+        <v>593</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>496</v>
@@ -8522,18 +8543,18 @@
         <v>13</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>423</v>
+        <v>568</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="187" ht="22" customHeight="true">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="187" ht="33" customHeight="true">
       <c r="A187" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>594</v>
+        <v>495</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>39</v>
@@ -8542,7 +8563,7 @@
         <v>13</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>403</v>
+        <v>496</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>13</v>
@@ -8551,7 +8572,7 @@
         <v>423</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>595</v>
+        <v>482</v>
       </c>
     </row>
     <row r="188" ht="22" customHeight="true">
@@ -8577,15 +8598,15 @@
         <v>423</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="189" ht="33" customHeight="true">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="189" ht="22" customHeight="true">
       <c r="A189" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>39</v>
@@ -8603,15 +8624,15 @@
         <v>423</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" ht="33" customHeight="true">
       <c r="A190" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>39</v>
@@ -8634,10 +8655,10 @@
     </row>
     <row r="191" ht="33" customHeight="true">
       <c r="A191" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>39</v>
@@ -8655,15 +8676,15 @@
         <v>423</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
     </row>
     <row r="192" ht="33" customHeight="true">
       <c r="A192" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>39</v>
@@ -8681,7 +8702,7 @@
         <v>423</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>606</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" ht="33" customHeight="true">
@@ -8733,15 +8754,15 @@
         <v>423</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="195" ht="33" customHeight="true">
       <c r="A195" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>39</v>
@@ -8759,15 +8780,15 @@
         <v>423</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
     </row>
     <row r="196" ht="33" customHeight="true">
       <c r="A196" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>39</v>
@@ -8785,15 +8806,15 @@
         <v>423</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197" ht="33" customHeight="true">
       <c r="A197" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>39</v>
@@ -8816,28 +8837,28 @@
     </row>
     <row r="198" ht="33" customHeight="true">
       <c r="A198" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>496</v>
+        <v>403</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>569</v>
+        <v>423</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>620</v>
+        <v>436</v>
       </c>
     </row>
     <row r="199" ht="33" customHeight="true">
@@ -8845,13 +8866,13 @@
         <v>621</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>496</v>
@@ -8860,18 +8881,18 @@
         <v>13</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="200" ht="33" customHeight="true">
       <c r="A200" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>39</v>
@@ -8886,18 +8907,18 @@
         <v>13</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="201" ht="33" customHeight="true">
       <c r="A201" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>39</v>
@@ -8906,50 +8927,50 @@
         <v>13</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>403</v>
+        <v>496</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>547</v>
+        <v>623</v>
       </c>
     </row>
     <row r="202" ht="33" customHeight="true">
       <c r="A202" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>49</v>
+        <v>543</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>411</v>
+        <v>547</v>
       </c>
     </row>
     <row r="203" ht="33" customHeight="true">
       <c r="A203" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>18</v>
@@ -8972,28 +8993,28 @@
     </row>
     <row r="204" ht="33" customHeight="true">
       <c r="A204" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>186</v>
+        <v>410</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>632</v>
+        <v>411</v>
       </c>
     </row>
     <row r="205" ht="33" customHeight="true">
@@ -9019,15 +9040,15 @@
         <v>278</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>279</v>
+        <v>635</v>
       </c>
     </row>
     <row r="206" ht="33" customHeight="true">
       <c r="A206" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>39</v>
@@ -9050,10 +9071,10 @@
     </row>
     <row r="207" ht="33" customHeight="true">
       <c r="A207" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>39</v>
@@ -9062,16 +9083,16 @@
         <v>11</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>639</v>
+        <v>186</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="208" ht="33" customHeight="true">
@@ -9085,27 +9106,27 @@
         <v>39</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>496</v>
+        <v>642</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>517</v>
+        <v>187</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>557</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" ht="33" customHeight="true">
       <c r="A209" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>39</v>
@@ -9123,15 +9144,15 @@
         <v>517</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
     </row>
     <row r="210" ht="33" customHeight="true">
       <c r="A210" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>645</v>
+        <v>516</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>39</v>
@@ -9149,15 +9170,15 @@
         <v>517</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>646</v>
+        <v>518</v>
       </c>
     </row>
     <row r="211" ht="33" customHeight="true">
       <c r="A211" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>39</v>
@@ -9172,70 +9193,70 @@
         <v>13</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>569</v>
+        <v>517</v>
       </c>
       <c r="H211" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="212" ht="33" customHeight="true">
+      <c r="A212" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="212" ht="22" customHeight="true">
-      <c r="A212" s="3" t="s">
+      <c r="C212" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H212" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B212" s="3" t="s">
+    </row>
+    <row r="213" ht="33" customHeight="true">
+      <c r="A213" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G212" s="3" t="s">
+      <c r="B213" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="H212" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="213" ht="22" customHeight="true">
-      <c r="A213" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>655</v>
-      </c>
       <c r="C213" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>652</v>
+        <v>568</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="214" ht="33" customHeight="true">
+    <row r="214" ht="22" customHeight="true">
       <c r="A214" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>39</v>
@@ -9250,18 +9271,18 @@
         <v>13</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="H214" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="215" ht="22" customHeight="true">
+      <c r="A215" s="3" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="215" ht="33" customHeight="true">
-      <c r="A215" s="3" t="s">
+      <c r="B215" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>39</v>
@@ -9276,44 +9297,44 @@
         <v>13</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="216" ht="33" customHeight="true">
       <c r="A216" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="C216" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H216" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="217" ht="33" customHeight="true">
       <c r="A217" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>665</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>39</v>
@@ -9328,70 +9349,70 @@
         <v>13</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="218" ht="33" customHeight="true">
       <c r="A218" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H218" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="H218" s="3" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="219" ht="33" customHeight="true">
       <c r="A219" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H219" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="H219" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="220" ht="33" customHeight="true">
       <c r="A220" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>39</v>
@@ -9400,206 +9421,206 @@
         <v>11</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>568</v>
+        <v>673</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="221" ht="33" customHeight="true">
       <c r="A221" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="H221" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="H221" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="222" ht="33" customHeight="true">
       <c r="A222" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="C222" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="223" ht="33" customHeight="true">
+      <c r="A223" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C222" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E222" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="F222" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G222" s="3" t="s">
+      <c r="C223" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="224" ht="33" customHeight="true">
+      <c r="A224" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G224" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="H222" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="223" ht="22" customHeight="true">
-      <c r="A223" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H223" s="3" t="s">
+      <c r="H224" s="3" t="s">
         <v>686</v>
-      </c>
-    </row>
-    <row r="224" ht="22" customHeight="true">
-      <c r="A224" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="H224" s="3" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="225" ht="22" customHeight="true">
       <c r="A225" s="3" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>688</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E225" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="226" ht="22" customHeight="true">
+      <c r="A226" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F225" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="H225" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="226" ht="33" customHeight="true">
-      <c r="A226" s="3" t="s">
+      <c r="F226" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G226" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="H226" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="C226" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G226" s="3" t="s">
+    </row>
+    <row r="227" ht="22" customHeight="true">
+      <c r="A227" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="H226" s="3" t="s">
+      <c r="B227" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="3" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="227" ht="33" customHeight="true">
-      <c r="A227" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>678</v>
-      </c>
       <c r="F227" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="228" ht="33" customHeight="true">
       <c r="A228" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>39</v>
@@ -9608,7 +9629,7 @@
         <v>11</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>678</v>
+        <v>572</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>13</v>
@@ -9617,59 +9638,59 @@
         <v>700</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="229" ht="33" customHeight="true">
       <c r="A229" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="H229" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="H229" s="3" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="230" ht="33" customHeight="true">
       <c r="A230" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="C230" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="H230" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="H230" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="231" ht="33" customHeight="true">
@@ -9686,16 +9707,16 @@
         <v>11</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="232" ht="33" customHeight="true">
@@ -9712,16 +9733,16 @@
         <v>11</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>568</v>
+        <v>682</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="233" ht="33" customHeight="true">
@@ -9738,16 +9759,16 @@
         <v>11</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>568</v>
+        <v>682</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="234" ht="33" customHeight="true">
@@ -9764,19 +9785,19 @@
         <v>11</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="235" ht="22" customHeight="true">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="235" ht="33" customHeight="true">
       <c r="A235" s="3" t="s">
         <v>717</v>
       </c>
@@ -9787,56 +9808,56 @@
         <v>39</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>173</v>
+        <v>572</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>49</v>
+        <v>704</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
     </row>
     <row r="236" ht="33" customHeight="true">
       <c r="A236" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="C236" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="237" ht="22" customHeight="true">
+      <c r="A237" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="C236" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E236" s="3" t="s">
+      <c r="B237" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="F236" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G236" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H236" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="237" ht="33" customHeight="true">
-      <c r="A237" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>725</v>
-      </c>
       <c r="C237" s="3" t="s">
-        <v>726</v>
+        <v>39</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>13</v>
@@ -9848,33 +9869,33 @@
         <v>13</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="238" ht="33" customHeight="true">
       <c r="A238" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C238" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="D238" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F238" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="H238" s="3" t="s">
         <v>727</v>
@@ -9882,13 +9903,13 @@
     </row>
     <row r="239" ht="33" customHeight="true">
       <c r="A239" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>726</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>13</v>
@@ -9903,7 +9924,7 @@
         <v>346</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="240" ht="33" customHeight="true">
@@ -9914,13 +9935,13 @@
         <v>733</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>734</v>
+        <v>173</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>13</v>
@@ -9929,33 +9950,33 @@
         <v>346</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="241" ht="33" customHeight="true">
       <c r="A241" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>645</v>
-      </c>
       <c r="C241" s="3" t="s">
-        <v>39</v>
+        <v>730</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>496</v>
+        <v>173</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>517</v>
+        <v>346</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>646</v>
+        <v>731</v>
       </c>
     </row>
     <row r="242" ht="33" customHeight="true">
@@ -9966,36 +9987,36 @@
         <v>737</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>39</v>
+        <v>730</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>496</v>
+        <v>738</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>517</v>
+        <v>346</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>523</v>
+        <v>731</v>
       </c>
     </row>
     <row r="243" ht="33" customHeight="true">
       <c r="A243" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>739</v>
+        <v>649</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>496</v>
@@ -10007,7 +10028,7 @@
         <v>517</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>557</v>
+        <v>650</v>
       </c>
     </row>
     <row r="244" ht="33" customHeight="true">
@@ -10050,16 +10071,16 @@
         <v>11</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>231</v>
+        <v>496</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>464</v>
+        <v>557</v>
       </c>
     </row>
     <row r="246" ht="33" customHeight="true">
@@ -10076,16 +10097,16 @@
         <v>11</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>231</v>
+        <v>496</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
     </row>
     <row r="247" ht="33" customHeight="true">
@@ -10111,7 +10132,7 @@
         <v>423</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="248" ht="33" customHeight="true">
@@ -10128,7 +10149,7 @@
         <v>11</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>496</v>
+        <v>231</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>13</v>
@@ -10137,7 +10158,7 @@
         <v>423</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
     </row>
     <row r="249" ht="33" customHeight="true">
@@ -10154,7 +10175,7 @@
         <v>11</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>496</v>
+        <v>231</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>13</v>
@@ -10163,7 +10184,7 @@
         <v>423</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="250" ht="33" customHeight="true">
@@ -10192,7 +10213,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="251" ht="22" customHeight="true">
+    <row r="251" ht="33" customHeight="true">
       <c r="A251" s="3" t="s">
         <v>754</v>
       </c>
@@ -10206,25 +10227,25 @@
         <v>11</v>
       </c>
       <c r="E251" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="252" ht="33" customHeight="true">
+      <c r="A252" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="F251" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H251" s="3" t="s">
+      <c r="B252" s="3" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="252" ht="22" customHeight="true">
-      <c r="A252" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>759</v>
-      </c>
       <c r="C252" s="3" t="s">
         <v>39</v>
       </c>
@@ -10232,24 +10253,24 @@
         <v>11</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>756</v>
+        <v>496</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>760</v>
+        <v>482</v>
       </c>
     </row>
     <row r="253" ht="22" customHeight="true">
       <c r="A253" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>39</v>
@@ -10258,7 +10279,7 @@
         <v>11</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>13</v>
@@ -10267,15 +10288,15 @@
         <v>418</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="254" ht="22" customHeight="true">
       <c r="A254" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>39</v>
@@ -10284,7 +10305,7 @@
         <v>11</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>13</v>
@@ -10293,42 +10314,42 @@
         <v>418</v>
       </c>
       <c r="H254" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="255" ht="22" customHeight="true">
+      <c r="A255" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="255" ht="33" customHeight="true">
-      <c r="A255" s="3" t="s">
+      <c r="C255" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H255" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="B255" s="3" t="s">
+    </row>
+    <row r="256" ht="22" customHeight="true">
+      <c r="A256" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E255" s="3" t="s">
+      <c r="B256" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="F255" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="H255" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="256" ht="33" customHeight="true">
-      <c r="A256" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>772</v>
-      </c>
       <c r="C256" s="3" t="s">
         <v>39</v>
       </c>
@@ -10336,123 +10357,123 @@
         <v>11</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>569</v>
+        <v>418</v>
       </c>
       <c r="H256" s="3" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="257" ht="22" customHeight="true">
+    <row r="257" ht="33" customHeight="true">
       <c r="A257" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="F257" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H257" s="3" t="s">
         <v>774</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G257" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="H257" s="3" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="258" ht="33" customHeight="true">
       <c r="A258" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B258" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="C258" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="259" ht="22" customHeight="true">
+      <c r="A259" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G258" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H258" s="3" t="s">
+      <c r="B259" s="3" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="259" ht="33" customHeight="true">
-      <c r="A259" s="3" t="s">
+      <c r="C259" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H259" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="F259" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H259" s="3" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="260" ht="33" customHeight="true">
       <c r="A260" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="C260" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H260" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="C260" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G260" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H260" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="261" ht="22" customHeight="true">
+    </row>
+    <row r="261" ht="33" customHeight="true">
       <c r="A261" s="3" t="s">
         <v>783</v>
       </c>
@@ -10466,16 +10487,16 @@
         <v>11</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>231</v>
+        <v>773</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>595</v>
+        <v>782</v>
       </c>
     </row>
     <row r="262" ht="33" customHeight="true">
@@ -10501,10 +10522,10 @@
         <v>423</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="263" ht="33" customHeight="true">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="263" ht="22" customHeight="true">
       <c r="A263" s="3" t="s">
         <v>787</v>
       </c>
@@ -10518,68 +10539,68 @@
         <v>11</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>496</v>
+        <v>231</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>569</v>
+        <v>423</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>789</v>
+        <v>598</v>
       </c>
     </row>
     <row r="264" ht="33" customHeight="true">
       <c r="A264" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="C264" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="265" ht="33" customHeight="true">
+      <c r="A265" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="C264" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E264" s="3" t="s">
+      <c r="B265" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F264" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="265" ht="22" customHeight="true">
-      <c r="A265" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="B265" s="3" t="s">
+      <c r="F265" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H265" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H265" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="266" ht="33" customHeight="true">
@@ -10593,7 +10614,7 @@
         <v>39</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>496</v>
@@ -10602,10 +10623,10 @@
         <v>13</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>646</v>
+        <v>591</v>
       </c>
     </row>
     <row r="267" ht="33" customHeight="true">
@@ -10619,7 +10640,7 @@
         <v>39</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>496</v>
@@ -10628,13 +10649,13 @@
         <v>13</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>423</v>
+        <v>568</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="268" ht="33" customHeight="true">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="268" ht="22" customHeight="true">
       <c r="A268" s="3" t="s">
         <v>798</v>
       </c>
@@ -10648,16 +10669,16 @@
         <v>11</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>678</v>
+        <v>186</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>700</v>
+        <v>346</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>701</v>
+        <v>360</v>
       </c>
     </row>
     <row r="269" ht="33" customHeight="true">
@@ -10674,19 +10695,19 @@
         <v>11</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>186</v>
+        <v>496</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>187</v>
+        <v>517</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="270" ht="44" customHeight="true">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="270" ht="33" customHeight="true">
       <c r="A270" s="3" t="s">
         <v>802</v>
       </c>
@@ -10697,10 +10718,10 @@
         <v>39</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>403</v>
+        <v>496</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>13</v>
@@ -10709,10 +10730,10 @@
         <v>423</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="271" ht="22" customHeight="true">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="271" ht="33" customHeight="true">
       <c r="A271" s="3" t="s">
         <v>804</v>
       </c>
@@ -10726,19 +10747,19 @@
         <v>11</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>186</v>
+        <v>682</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>346</v>
+        <v>704</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="272" ht="22" customHeight="true">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="272" ht="33" customHeight="true">
       <c r="A272" s="3" t="s">
         <v>806</v>
       </c>
@@ -10758,13 +10779,13 @@
         <v>13</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>346</v>
+        <v>187</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="273" ht="33" customHeight="true">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="273" ht="44" customHeight="true">
       <c r="A273" s="3" t="s">
         <v>808</v>
       </c>
@@ -10772,25 +10793,25 @@
         <v>809</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>49</v>
+        <v>423</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="274" ht="33" customHeight="true">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="274" ht="22" customHeight="true">
       <c r="A274" s="3" t="s">
         <v>810</v>
       </c>
@@ -10798,25 +10819,25 @@
         <v>811</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>410</v>
+        <v>186</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="275" ht="33" customHeight="true">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="275" ht="22" customHeight="true">
       <c r="A275" s="3" t="s">
         <v>812</v>
       </c>
@@ -10824,22 +10845,22 @@
         <v>813</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>410</v>
+        <v>186</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>79</v>
+        <v>366</v>
       </c>
     </row>
     <row r="276" ht="33" customHeight="true">
@@ -10850,22 +10871,22 @@
         <v>815</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>568</v>
+        <v>410</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>569</v>
+        <v>49</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>570</v>
+        <v>79</v>
       </c>
     </row>
     <row r="277" ht="33" customHeight="true">
@@ -10876,186 +10897,186 @@
         <v>817</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E277" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="278" ht="33" customHeight="true">
+      <c r="A278" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="F277" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G277" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="H277" s="3" t="s">
+      <c r="B278" s="3" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="278" ht="22" customHeight="true">
-      <c r="A278" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>688</v>
-      </c>
       <c r="C278" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>186</v>
+        <v>410</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>690</v>
+        <v>49</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>691</v>
+        <v>79</v>
       </c>
     </row>
     <row r="279" ht="33" customHeight="true">
       <c r="A279" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B279" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="C279" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="C279" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E279" s="3" t="s">
+      <c r="F279" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H279" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="F279" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G279" s="3" t="s">
+    </row>
+    <row r="280" ht="22" customHeight="true">
+      <c r="A280" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="H279" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="280" ht="33" customHeight="true">
-      <c r="A280" s="3" t="s">
-        <v>826</v>
-      </c>
       <c r="B280" s="3" t="s">
-        <v>827</v>
+        <v>692</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>828</v>
+        <v>186</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>380</v>
+        <v>694</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>829</v>
+        <v>695</v>
       </c>
     </row>
     <row r="281" ht="33" customHeight="true">
       <c r="A281" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="282" ht="33" customHeight="true">
+      <c r="A282" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B282" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C282" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="283" ht="33" customHeight="true">
+      <c r="A283" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D281" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G281" s="3" t="s">
+      <c r="D283" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G283" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H281" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="282" ht="22" customHeight="true">
-      <c r="A282" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G282" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H282" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="283" ht="22" customHeight="true">
-      <c r="A283" s="3" t="s">
+      <c r="H283" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G283" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H283" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="284" ht="22" customHeight="true">
       <c r="A284" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>39</v>
@@ -11064,7 +11085,7 @@
         <v>11</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>186</v>
+        <v>697</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>13</v>
@@ -11073,50 +11094,50 @@
         <v>49</v>
       </c>
       <c r="H284" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="285" ht="22" customHeight="true">
+      <c r="A285" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B285" s="3" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="285" ht="33" customHeight="true">
-      <c r="A285" s="3" t="s">
+      <c r="C285" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H285" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="B285" s="3" t="s">
+    </row>
+    <row r="286" ht="22" customHeight="true">
+      <c r="A286" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="C285" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="H285" s="3" t="s">
+      <c r="B286" s="3" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="286" ht="33" customHeight="true">
-      <c r="A286" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>847</v>
-      </c>
       <c r="C286" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>410</v>
+        <v>186</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>13</v>
@@ -11125,15 +11146,15 @@
         <v>49</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>50</v>
+        <v>846</v>
       </c>
     </row>
     <row r="287" ht="33" customHeight="true">
       <c r="A287" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>849</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>18</v>
@@ -11142,16 +11163,16 @@
         <v>11</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="288" ht="33" customHeight="true">
@@ -11168,16 +11189,16 @@
         <v>11</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>823</v>
+        <v>410</v>
       </c>
       <c r="F288" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>696</v>
+        <v>49</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>845</v>
+        <v>50</v>
       </c>
     </row>
     <row r="289" ht="33" customHeight="true">
@@ -11194,16 +11215,16 @@
         <v>11</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="290" ht="33" customHeight="true">
@@ -11220,16 +11241,16 @@
         <v>11</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="291" ht="33" customHeight="true">
@@ -11246,16 +11267,16 @@
         <v>11</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="292" ht="33" customHeight="true">
@@ -11266,56 +11287,56 @@
         <v>859</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>496</v>
+        <v>827</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>569</v>
+        <v>700</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
     </row>
     <row r="293" ht="33" customHeight="true">
       <c r="A293" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="B293" s="3" t="s">
-        <v>862</v>
-      </c>
       <c r="C293" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>496</v>
+        <v>827</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>423</v>
+        <v>700</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>482</v>
+        <v>849</v>
       </c>
     </row>
     <row r="294" ht="33" customHeight="true">
       <c r="A294" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>864</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>39</v>
@@ -11330,239 +11351,239 @@
         <v>13</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="295" ht="33" customHeight="true">
       <c r="A295" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B295" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B295" s="3" t="s">
-        <v>866</v>
-      </c>
       <c r="C295" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>823</v>
+        <v>496</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>696</v>
+        <v>423</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>845</v>
+        <v>482</v>
       </c>
     </row>
     <row r="296" ht="33" customHeight="true">
       <c r="A296" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="B296" s="3" t="s">
-        <v>868</v>
-      </c>
       <c r="C296" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D296" s="3" t="e"/>
+      <c r="D296" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E296" s="3" t="s">
-        <v>869</v>
+        <v>496</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>278</v>
+        <v>517</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>870</v>
+        <v>557</v>
       </c>
     </row>
     <row r="297" ht="33" customHeight="true">
       <c r="A297" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="298" ht="33" customHeight="true">
+      <c r="A298" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B298" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="C298" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D298" s="3" t="e"/>
+      <c r="E298" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="C297" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F297" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G297" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="H297" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="298" ht="22" customHeight="true">
-      <c r="A298" s="3" t="s">
+      <c r="F298" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H298" s="3" t="s">
         <v>873</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G298" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H298" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="299" ht="33" customHeight="true">
       <c r="A299" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B299" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="C299" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="300" ht="22" customHeight="true">
+      <c r="A300" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="C299" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E299" s="3" t="s">
+      <c r="B300" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="301" ht="33" customHeight="true">
+      <c r="A301" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F299" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G299" s="3" t="s">
+      <c r="F301" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G301" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="H299" s="3" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="300" ht="33" customHeight="true">
-      <c r="A300" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F300" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G300" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="H300" s="3" t="s">
+      <c r="H301" s="3" t="s">
         <v>880</v>
-      </c>
-    </row>
-    <row r="301" ht="22" customHeight="true">
-      <c r="A301" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G301" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="H301" s="3" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="302" ht="33" customHeight="true">
       <c r="A302" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="303" ht="22" customHeight="true">
+      <c r="A303" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B303" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="C302" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G302" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="H302" s="3" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="303" ht="33" customHeight="true">
-      <c r="A303" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>888</v>
-      </c>
       <c r="C303" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>496</v>
+        <v>822</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>543</v>
+        <v>656</v>
       </c>
       <c r="H303" s="3" t="s">
         <v>886</v>
@@ -11570,10 +11591,10 @@
     </row>
     <row r="304" ht="33" customHeight="true">
       <c r="A304" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>39</v>
@@ -11588,18 +11609,18 @@
         <v>13</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="305" ht="33" customHeight="true">
       <c r="A305" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>39</v>
@@ -11614,96 +11635,96 @@
         <v>13</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>423</v>
+        <v>543</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="306" ht="33" customHeight="true">
       <c r="A306" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>186</v>
+        <v>496</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>187</v>
+        <v>517</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>188</v>
+        <v>894</v>
       </c>
     </row>
     <row r="307" ht="33" customHeight="true">
       <c r="A307" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H307" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="B307" s="3" t="s">
+    </row>
+    <row r="308" ht="33" customHeight="true">
+      <c r="A308" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="C307" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G307" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H307" s="3" t="s">
+      <c r="B308" s="3" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="308" ht="22" customHeight="true">
-      <c r="A308" s="3" t="s">
+      <c r="C308" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="309" ht="33" customHeight="true">
+      <c r="A309" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B309" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E308" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F308" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G308" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H308" s="3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="309" ht="22" customHeight="true">
-      <c r="A309" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>18</v>
@@ -11721,15 +11742,15 @@
         <v>49</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>686</v>
+        <v>902</v>
       </c>
     </row>
     <row r="310" ht="22" customHeight="true">
       <c r="A310" s="3" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>18</v>
@@ -11747,18 +11768,18 @@
         <v>49</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>183</v>
+        <v>905</v>
       </c>
     </row>
     <row r="311" ht="22" customHeight="true">
       <c r="A311" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B311" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="B311" s="3" t="s">
-        <v>908</v>
-      </c>
       <c r="C311" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>13</v>
@@ -11773,18 +11794,18 @@
         <v>49</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
     </row>
     <row r="312" ht="22" customHeight="true">
       <c r="A312" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B312" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="B312" s="3" t="s">
-        <v>910</v>
-      </c>
       <c r="C312" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>13</v>
@@ -11799,15 +11820,15 @@
         <v>49</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>719</v>
+        <v>183</v>
       </c>
     </row>
     <row r="313" ht="22" customHeight="true">
       <c r="A313" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B313" s="3" t="s">
         <v>911</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>912</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>39</v>
@@ -11830,10 +11851,10 @@
     </row>
     <row r="314" ht="22" customHeight="true">
       <c r="A314" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B314" s="3" t="s">
         <v>913</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>914</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>39</v>
@@ -11856,13 +11877,13 @@
     </row>
     <row r="315" ht="22" customHeight="true">
       <c r="A315" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B315" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="B315" s="3" t="s">
-        <v>916</v>
-      </c>
       <c r="C315" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>13</v>
@@ -11877,24 +11898,24 @@
         <v>49</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>917</v>
+        <v>727</v>
       </c>
     </row>
     <row r="316" ht="22" customHeight="true">
       <c r="A316" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>722</v>
+        <v>173</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>13</v>
@@ -11903,24 +11924,24 @@
         <v>49</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="317" ht="33" customHeight="true">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="317" ht="22" customHeight="true">
       <c r="A317" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>722</v>
+        <v>173</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>13</v>
@@ -11929,33 +11950,33 @@
         <v>49</v>
       </c>
       <c r="H317" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="318" ht="22" customHeight="true">
+      <c r="A318" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H318" s="3" t="s">
         <v>723</v>
-      </c>
-    </row>
-    <row r="318" ht="33" customHeight="true">
-      <c r="A318" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E318" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F318" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G318" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H318" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="319" ht="33" customHeight="true">
@@ -11963,33 +11984,33 @@
         <v>923</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>530</v>
+        <v>924</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>186</v>
+        <v>726</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>112</v>
+        <v>727</v>
       </c>
     </row>
     <row r="320" ht="33" customHeight="true">
       <c r="A320" s="3" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>925</v>
+        <v>525</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>39</v>
@@ -12007,15 +12028,15 @@
         <v>111</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="321" ht="22" customHeight="true">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="321" ht="33" customHeight="true">
       <c r="A321" s="3" t="s">
         <v>926</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>927</v>
+        <v>530</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>39</v>
@@ -12030,18 +12051,18 @@
         <v>13</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>346</v>
+        <v>111</v>
       </c>
       <c r="H321" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="322" ht="33" customHeight="true">
+      <c r="A322" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="B322" s="3" t="s">
         <v>928</v>
-      </c>
-    </row>
-    <row r="322" ht="22" customHeight="true">
-      <c r="A322" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>930</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>39</v>
@@ -12056,18 +12077,18 @@
         <v>13</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>346</v>
+        <v>111</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>366</v>
+        <v>112</v>
       </c>
     </row>
     <row r="323" ht="22" customHeight="true">
       <c r="A323" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>39</v>
@@ -12085,15 +12106,15 @@
         <v>346</v>
       </c>
       <c r="H323" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="324" ht="22" customHeight="true">
+      <c r="A324" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B324" s="3" t="s">
         <v>933</v>
-      </c>
-    </row>
-    <row r="324" ht="33" customHeight="true">
-      <c r="A324" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>39</v>
@@ -12108,44 +12129,44 @@
         <v>13</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>187</v>
+        <v>346</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="325" ht="33" customHeight="true">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="325" ht="22" customHeight="true">
       <c r="A325" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B325" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="C325" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H325" s="3" t="s">
         <v>936</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E325" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F325" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G325" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H325" s="3" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="326" ht="33" customHeight="true">
       <c r="A326" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>815</v>
+        <v>238</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>39</v>
@@ -12154,42 +12175,42 @@
         <v>13</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>568</v>
+        <v>186</v>
       </c>
       <c r="F326" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>569</v>
+        <v>187</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>570</v>
+        <v>188</v>
       </c>
     </row>
     <row r="327" ht="33" customHeight="true">
       <c r="A327" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B327" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="C327" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H327" s="3" t="s">
         <v>940</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E327" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F327" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G327" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="H327" s="3" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="328" ht="33" customHeight="true">
@@ -12206,16 +12227,16 @@
         <v>13</v>
       </c>
       <c r="E328" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G328" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F328" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G328" s="3" t="s">
-        <v>569</v>
-      </c>
       <c r="H328" s="3" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="329" ht="33" customHeight="true">
@@ -12226,22 +12247,22 @@
         <v>944</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>122</v>
+        <v>572</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G329" s="3" t="s">
-        <v>123</v>
+        <v>568</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>124</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" ht="33" customHeight="true">
@@ -12258,68 +12279,68 @@
         <v>13</v>
       </c>
       <c r="E330" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G330" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F330" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G330" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="H330" s="3" t="s">
-        <v>947</v>
+        <v>573</v>
       </c>
     </row>
     <row r="331" ht="33" customHeight="true">
       <c r="A331" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="B331" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="B331" s="3" t="s">
-        <v>949</v>
-      </c>
       <c r="C331" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="F331" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="332" ht="33" customHeight="true">
       <c r="A332" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B332" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="C332" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H332" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E332" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="F332" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G332" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="H332" s="3" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="333" ht="33" customHeight="true">
@@ -12336,16 +12357,16 @@
         <v>13</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>403</v>
+        <v>191</v>
       </c>
       <c r="F333" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>423</v>
+        <v>83</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>445</v>
+        <v>159</v>
       </c>
     </row>
     <row r="334" ht="33" customHeight="true">
@@ -12359,19 +12380,19 @@
         <v>39</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>403</v>
+        <v>822</v>
       </c>
       <c r="F334" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>423</v>
+        <v>656</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>464</v>
+        <v>657</v>
       </c>
     </row>
     <row r="335" ht="33" customHeight="true">
@@ -12397,7 +12418,7 @@
         <v>423</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
     </row>
     <row r="336" ht="33" customHeight="true">
@@ -12405,7 +12426,7 @@
         <v>958</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>675</v>
+        <v>959</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>39</v>
@@ -12414,24 +12435,24 @@
         <v>13</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>568</v>
+        <v>403</v>
       </c>
       <c r="F336" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>672</v>
+        <v>423</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>673</v>
+        <v>464</v>
       </c>
     </row>
     <row r="337" ht="33" customHeight="true">
       <c r="A337" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>671</v>
+        <v>961</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>39</v>
@@ -12440,137 +12461,137 @@
         <v>13</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>568</v>
+        <v>403</v>
       </c>
       <c r="F337" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>672</v>
+        <v>423</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>673</v>
+        <v>485</v>
       </c>
     </row>
     <row r="338" ht="33" customHeight="true">
       <c r="A338" s="3" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>270</v>
+        <v>679</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>271</v>
+        <v>572</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>187</v>
+        <v>676</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>272</v>
+        <v>677</v>
       </c>
     </row>
     <row r="339" ht="33" customHeight="true">
       <c r="A339" s="3" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>962</v>
+        <v>675</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>726</v>
+        <v>39</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>963</v>
+        <v>572</v>
       </c>
       <c r="F339" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>54</v>
+        <v>676</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>964</v>
+        <v>677</v>
       </c>
     </row>
     <row r="340" ht="33" customHeight="true">
       <c r="A340" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>966</v>
+        <v>274</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>726</v>
+        <v>39</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>963</v>
+        <v>271</v>
       </c>
       <c r="F340" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>967</v>
+        <v>272</v>
       </c>
     </row>
     <row r="341" ht="33" customHeight="true">
       <c r="A341" s="3" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>969</v>
+        <v>270</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>726</v>
+        <v>39</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>963</v>
+        <v>271</v>
       </c>
       <c r="F341" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>970</v>
+        <v>272</v>
       </c>
     </row>
     <row r="342" ht="33" customHeight="true">
       <c r="A342" s="3" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="F342" s="3" t="s">
         <v>13</v>
@@ -12579,24 +12600,24 @@
         <v>54</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="343" ht="33" customHeight="true">
       <c r="A343" s="3" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>13</v>
@@ -12605,24 +12626,24 @@
         <v>54</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
     </row>
     <row r="344" ht="33" customHeight="true">
       <c r="A344" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="F344" s="3" t="s">
         <v>13</v>
@@ -12631,24 +12652,24 @@
         <v>54</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
     </row>
     <row r="345" ht="33" customHeight="true">
       <c r="A345" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="F345" s="3" t="s">
         <v>13</v>
@@ -12657,24 +12678,24 @@
         <v>54</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
     </row>
     <row r="346" ht="33" customHeight="true">
       <c r="A346" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B346" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="B346" s="3" t="s">
-        <v>981</v>
-      </c>
       <c r="C346" s="3" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="F346" s="3" t="s">
         <v>13</v>
@@ -12683,36 +12704,36 @@
         <v>54</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="347" ht="22" customHeight="true">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="347" ht="33" customHeight="true">
       <c r="A347" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B347" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="B347" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="C347" s="3" t="s">
-        <v>39</v>
+        <v>730</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>253</v>
+        <v>968</v>
       </c>
       <c r="F347" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G347" s="3" t="s">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="348" ht="22" customHeight="true">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="348" ht="33" customHeight="true">
       <c r="A348" s="3" t="s">
         <v>983</v>
       </c>
@@ -12720,56 +12741,56 @@
         <v>984</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>39</v>
+        <v>730</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>253</v>
+        <v>968</v>
       </c>
       <c r="F348" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="349" ht="22" customHeight="true">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="349" ht="33" customHeight="true">
       <c r="A349" s="3" t="s">
         <v>985</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>330</v>
+        <v>986</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>39</v>
+        <v>730</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>253</v>
+        <v>968</v>
       </c>
       <c r="F349" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="350" ht="33" customHeight="true">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="350" ht="22" customHeight="true">
       <c r="A350" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>39</v>
@@ -12784,18 +12805,18 @@
         <v>13</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="351" ht="33" customHeight="true">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="351" ht="22" customHeight="true">
       <c r="A351" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>481</v>
+        <v>989</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>39</v>
@@ -12810,91 +12831,91 @@
         <v>13</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>423</v>
+        <v>278</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>482</v>
+        <v>326</v>
       </c>
     </row>
     <row r="352" ht="22" customHeight="true">
       <c r="A352" s="3" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>989</v>
+        <v>330</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="F352" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="353" ht="22" customHeight="true">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="353" ht="33" customHeight="true">
       <c r="A353" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>991</v>
+        <v>252</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="F353" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="354" ht="22" customHeight="true">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="354" ht="33" customHeight="true">
       <c r="A354" s="3" t="s">
         <v>992</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>206</v>
+        <v>481</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="F354" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>208</v>
+        <v>423</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="355" ht="33" customHeight="true">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="355" ht="22" customHeight="true">
       <c r="A355" s="3" t="s">
         <v>993</v>
       </c>
@@ -12902,25 +12923,25 @@
         <v>994</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>286</v>
+        <v>995</v>
       </c>
       <c r="F355" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="356" ht="33" customHeight="true">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="356" ht="22" customHeight="true">
       <c r="A356" s="3" t="s">
         <v>996</v>
       </c>
@@ -12928,82 +12949,82 @@
         <v>997</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="F356" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="357" ht="33" customHeight="true">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="357" ht="22" customHeight="true">
       <c r="A357" s="3" t="s">
         <v>998</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>309</v>
+        <v>999</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="F357" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G357" s="3" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="358" ht="33" customHeight="true">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="358" ht="22" customHeight="true">
       <c r="A358" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
     </row>
     <row r="359" ht="33" customHeight="true">
       <c r="A359" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>293</v>
+        <v>1002</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>39</v>
@@ -13021,15 +13042,15 @@
         <v>278</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>294</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="360" ht="33" customHeight="true">
       <c r="A360" s="3" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>322</v>
+        <v>1005</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>39</v>
@@ -13047,15 +13068,15 @@
         <v>278</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
     </row>
     <row r="361" ht="33" customHeight="true">
       <c r="A361" s="3" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1003</v>
+        <v>309</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>39</v>
@@ -13073,15 +13094,15 @@
         <v>278</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>1004</v>
+        <v>310</v>
       </c>
     </row>
     <row r="362" ht="33" customHeight="true">
       <c r="A362" s="3" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1006</v>
+        <v>298</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>39</v>
@@ -13099,7 +13120,7 @@
         <v>278</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>1007</v>
+        <v>299</v>
       </c>
     </row>
     <row r="363" ht="33" customHeight="true">
@@ -13107,7 +13128,7 @@
         <v>1008</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1009</v>
+        <v>293</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>39</v>
@@ -13125,15 +13146,15 @@
         <v>278</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>1010</v>
+        <v>294</v>
       </c>
     </row>
     <row r="364" ht="33" customHeight="true">
       <c r="A364" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1012</v>
+        <v>322</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>39</v>
@@ -13156,10 +13177,10 @@
     </row>
     <row r="365" ht="33" customHeight="true">
       <c r="A365" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>39</v>
@@ -13177,15 +13198,15 @@
         <v>278</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="366" ht="33" customHeight="true">
       <c r="A366" s="3" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>39</v>
@@ -13203,15 +13224,15 @@
         <v>278</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>310</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="367" ht="33" customHeight="true">
       <c r="A367" s="3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>39</v>
@@ -13229,15 +13250,15 @@
         <v>278</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>870</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="368" ht="33" customHeight="true">
       <c r="A368" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B368" s="3" t="s">
         <v>1020</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>39</v>
@@ -13255,7 +13276,7 @@
         <v>278</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="369" ht="33" customHeight="true">
@@ -13307,15 +13328,15 @@
         <v>278</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>1026</v>
+        <v>310</v>
       </c>
     </row>
     <row r="371" ht="33" customHeight="true">
       <c r="A371" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B371" s="3" t="s">
         <v>1027</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>1028</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>39</v>
@@ -13333,15 +13354,15 @@
         <v>278</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>1023</v>
+        <v>873</v>
       </c>
     </row>
     <row r="372" ht="33" customHeight="true">
       <c r="A372" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1030</v>
+        <v>319</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>39</v>
@@ -13359,15 +13380,15 @@
         <v>278</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>1023</v>
+        <v>320</v>
       </c>
     </row>
     <row r="373" ht="33" customHeight="true">
       <c r="A373" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>303</v>
+        <v>1030</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>39</v>
@@ -13385,7 +13406,7 @@
         <v>278</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>304</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="374" ht="33" customHeight="true">
@@ -13411,15 +13432,15 @@
         <v>278</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>320</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="375" ht="33" customHeight="true">
       <c r="A375" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>319</v>
+        <v>1036</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>39</v>
@@ -13437,41 +13458,41 @@
         <v>278</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="376" ht="22" customHeight="true">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="376" ht="33" customHeight="true">
       <c r="A376" s="3" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="F376" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>209</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="377" ht="33" customHeight="true">
       <c r="A377" s="3" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>39</v>
@@ -13480,24 +13501,24 @@
         <v>13</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="F377" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
     </row>
     <row r="378" ht="33" customHeight="true">
       <c r="A378" s="3" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>250</v>
+        <v>1041</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>39</v>
@@ -13506,24 +13527,24 @@
         <v>13</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="F378" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>188</v>
+        <v>320</v>
       </c>
     </row>
     <row r="379" ht="33" customHeight="true">
       <c r="A379" s="3" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>39</v>
@@ -13532,50 +13553,50 @@
         <v>13</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>188</v>
+        <v>320</v>
       </c>
     </row>
     <row r="380" ht="22" customHeight="true">
       <c r="A380" s="3" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>838</v>
+        <v>1044</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>839</v>
+        <v>209</v>
       </c>
     </row>
     <row r="381" ht="33" customHeight="true">
       <c r="A381" s="3" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1042</v>
+        <v>245</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>39</v>
@@ -13596,12 +13617,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="382" ht="22" customHeight="true">
+    <row r="382" ht="33" customHeight="true">
       <c r="A382" s="3" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>793</v>
+        <v>250</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>39</v>
@@ -13616,18 +13637,18 @@
         <v>13</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>346</v>
+        <v>187</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>360</v>
+        <v>188</v>
       </c>
     </row>
     <row r="383" ht="33" customHeight="true">
       <c r="A383" s="3" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1045</v>
+        <v>240</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>39</v>
@@ -13636,76 +13657,76 @@
         <v>13</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>568</v>
+        <v>186</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>696</v>
+        <v>187</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="384" ht="33" customHeight="true">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="384" ht="22" customHeight="true">
       <c r="A384" s="3" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1047</v>
+        <v>842</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>568</v>
+        <v>186</v>
       </c>
       <c r="F384" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>700</v>
+        <v>49</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>701</v>
+        <v>843</v>
       </c>
     </row>
     <row r="385" ht="33" customHeight="true">
       <c r="A385" s="3" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>496</v>
+        <v>186</v>
       </c>
       <c r="F385" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>517</v>
+        <v>187</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="386" ht="33" customHeight="true">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="386" ht="22" customHeight="true">
       <c r="A386" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1051</v>
+        <v>799</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>39</v>
@@ -13714,16 +13735,16 @@
         <v>13</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>403</v>
+        <v>186</v>
       </c>
       <c r="F386" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>543</v>
+        <v>346</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>550</v>
+        <v>360</v>
       </c>
     </row>
     <row r="387" ht="33" customHeight="true">
@@ -13737,28 +13758,28 @@
         <v>39</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E387" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H387" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="388" ht="33" customHeight="true">
+      <c r="A388" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F387" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G387" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H387" s="3" t="s">
+      <c r="B388" s="3" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="388" ht="22" customHeight="true">
-      <c r="A388" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>1057</v>
-      </c>
       <c r="C388" s="3" t="s">
         <v>39</v>
       </c>
@@ -13766,24 +13787,24 @@
         <v>11</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>1058</v>
+        <v>572</v>
       </c>
       <c r="F388" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>83</v>
+        <v>704</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>1059</v>
+        <v>705</v>
       </c>
     </row>
     <row r="389" ht="33" customHeight="true">
       <c r="A389" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>39</v>
@@ -13792,154 +13813,154 @@
         <v>11</v>
       </c>
       <c r="E389" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H389" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="390" ht="33" customHeight="true">
+      <c r="A390" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="F389" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G389" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H389" s="3" t="s">
+      <c r="B390" s="3" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="390" ht="22" customHeight="true">
-      <c r="A390" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>1063</v>
-      </c>
       <c r="C390" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>1058</v>
+        <v>403</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>83</v>
+        <v>543</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>1059</v>
+        <v>550</v>
       </c>
     </row>
     <row r="391" ht="33" customHeight="true">
       <c r="A391" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="392" ht="22" customHeight="true">
+      <c r="A392" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B392" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="C391" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E391" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F391" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G391" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="H391" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="392" ht="33" customHeight="true">
-      <c r="A392" s="3" t="s">
+      <c r="C392" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E392" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="F392" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H392" s="3" t="s">
         <v>1067</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E392" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F392" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G392" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="H392" s="3" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="393" ht="33" customHeight="true">
       <c r="A393" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B393" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="C393" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="394" ht="22" customHeight="true">
+      <c r="A394" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E393" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F393" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G393" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H393" s="3" t="s">
+      <c r="B394" s="3" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="394" ht="33" customHeight="true">
-      <c r="A394" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>1073</v>
-      </c>
       <c r="C394" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>286</v>
+        <v>1066</v>
       </c>
       <c r="F394" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>1015</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="395" ht="33" customHeight="true">
       <c r="A395" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>39</v>
@@ -13948,68 +13969,68 @@
         <v>13</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="F395" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>278</v>
+        <v>704</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>870</v>
+        <v>708</v>
       </c>
     </row>
     <row r="396" ht="33" customHeight="true">
       <c r="A396" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H396" s="3" t="s">
         <v>1076</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E396" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F396" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G396" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H396" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="397" ht="33" customHeight="true">
       <c r="A397" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B397" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="C397" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H397" s="3" t="s">
         <v>1079</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E397" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F397" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G397" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H397" s="3" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="398" ht="33" customHeight="true">
@@ -14026,24 +14047,24 @@
         <v>13</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>496</v>
+        <v>286</v>
       </c>
       <c r="F398" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>1082</v>
+        <v>278</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>1083</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="399" ht="33" customHeight="true">
       <c r="A399" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>39</v>
@@ -14052,24 +14073,24 @@
         <v>13</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>568</v>
+        <v>286</v>
       </c>
       <c r="F399" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>672</v>
+        <v>278</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>1086</v>
+        <v>873</v>
       </c>
     </row>
     <row r="400" ht="33" customHeight="true">
       <c r="A400" s="3" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>39</v>
@@ -14078,24 +14099,24 @@
         <v>13</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>568</v>
+        <v>286</v>
       </c>
       <c r="F400" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>672</v>
+        <v>278</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>673</v>
+        <v>294</v>
       </c>
     </row>
     <row r="401" ht="33" customHeight="true">
       <c r="A401" s="3" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>39</v>
@@ -14104,24 +14125,24 @@
         <v>13</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>568</v>
+        <v>496</v>
       </c>
       <c r="F401" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>696</v>
+        <v>423</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>1091</v>
+        <v>488</v>
       </c>
     </row>
     <row r="402" ht="33" customHeight="true">
       <c r="A402" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>39</v>
@@ -14136,45 +14157,45 @@
         <v>13</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>517</v>
+        <v>1090</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>557</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="403" ht="33" customHeight="true">
       <c r="A403" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H403" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="B403" s="3" t="s">
+    </row>
+    <row r="404" ht="33" customHeight="true">
+      <c r="A404" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="C403" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E403" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="F403" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G403" s="3" t="s">
+      <c r="B404" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="H403" s="3" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="404" ht="22" customHeight="true">
-      <c r="A404" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>688</v>
-      </c>
       <c r="C404" s="3" t="s">
         <v>39</v>
       </c>
@@ -14182,155 +14203,155 @@
         <v>13</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>186</v>
+        <v>572</v>
       </c>
       <c r="F404" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
     </row>
     <row r="405" ht="33" customHeight="true">
       <c r="A405" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H405" s="3" t="s">
         <v>1099</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E405" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F405" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G405" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H405" s="3" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="406" ht="33" customHeight="true">
       <c r="A406" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="407" ht="33" customHeight="true">
+      <c r="A407" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B407" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C406" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E406" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="F406" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G406" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H406" s="3" t="s">
+      <c r="C407" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G407" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="407" ht="22" customHeight="true">
-      <c r="A407" s="3" t="s">
+      <c r="H407" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="B407" s="3" t="s">
+    </row>
+    <row r="408" ht="22" customHeight="true">
+      <c r="A408" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="C407" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E407" s="3" t="s">
+      <c r="B408" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E408" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F407" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G407" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H407" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="408" ht="33" customHeight="true">
-      <c r="A408" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E408" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="F408" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>187</v>
+        <v>694</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>272</v>
+        <v>695</v>
       </c>
     </row>
     <row r="409" ht="33" customHeight="true">
       <c r="A409" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H409" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="B409" s="3" t="s">
+    </row>
+    <row r="410" ht="22" customHeight="true">
+      <c r="A410" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="C409" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E409" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F409" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G409" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H409" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="410" ht="33" customHeight="true">
-      <c r="A410" s="3" t="s">
+      <c r="B410" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="B410" s="3" t="s">
-        <v>1112</v>
-      </c>
       <c r="C410" s="3" t="s">
         <v>39</v>
       </c>
@@ -14338,25 +14359,25 @@
         <v>13</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>403</v>
+        <v>186</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>423</v>
+        <v>49</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>433</v>
+        <v>843</v>
       </c>
     </row>
     <row r="411" ht="33" customHeight="true">
       <c r="A411" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B411" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="B411" s="3" t="s">
-        <v>1114</v>
-      </c>
       <c r="C411" s="3" t="s">
         <v>39</v>
       </c>
@@ -14364,25 +14385,25 @@
         <v>13</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>403</v>
+        <v>496</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>423</v>
+        <v>187</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>424</v>
+        <v>272</v>
       </c>
     </row>
     <row r="412" ht="33" customHeight="true">
       <c r="A412" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B412" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="B412" s="3" t="s">
-        <v>1116</v>
-      </c>
       <c r="C412" s="3" t="s">
         <v>39</v>
       </c>
@@ -14390,7 +14411,7 @@
         <v>13</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>253</v>
+        <v>403</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>13</v>
@@ -14399,145 +14420,145 @@
         <v>423</v>
       </c>
       <c r="H412" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="413" ht="33" customHeight="true">
+      <c r="A413" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B413" s="3" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="413" ht="22" customHeight="true">
-      <c r="A413" s="3" t="s">
+      <c r="C413" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="414" ht="33" customHeight="true">
+      <c r="A414" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B414" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="C413" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E413" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F413" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G413" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H413" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="414" ht="22" customHeight="true">
-      <c r="A414" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>1121</v>
-      </c>
       <c r="C414" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>1122</v>
+        <v>403</v>
       </c>
       <c r="F414" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>824</v>
+        <v>423</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>1123</v>
+        <v>424</v>
       </c>
     </row>
     <row r="415" ht="33" customHeight="true">
       <c r="A415" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="416" ht="22" customHeight="true">
+      <c r="A416" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B416" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="B415" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D415" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E415" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F415" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G415" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H415" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="416" ht="33" customHeight="true">
-      <c r="A416" s="3" t="s">
+      <c r="C416" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="417" ht="22" customHeight="true">
+      <c r="A417" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B417" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="C416" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E416" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F416" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G416" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H416" s="3" t="s">
+      <c r="C417" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E417" s="3" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="417" ht="33" customHeight="true">
-      <c r="A417" s="3" t="s">
+      <c r="F417" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="H417" s="3" t="s">
         <v>1128</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E417" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F417" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G417" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="H417" s="3" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="418" ht="33" customHeight="true">
       <c r="A418" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1132</v>
+        <v>285</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>39</v>
@@ -14546,134 +14567,134 @@
         <v>13</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>496</v>
+        <v>286</v>
       </c>
       <c r="F418" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>1082</v>
+        <v>278</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>1133</v>
+        <v>287</v>
       </c>
     </row>
     <row r="419" ht="33" customHeight="true">
       <c r="A419" s="3" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>496</v>
+        <v>153</v>
       </c>
       <c r="F419" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>423</v>
+        <v>83</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>488</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="420" ht="33" customHeight="true">
       <c r="A420" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="421" ht="33" customHeight="true">
+      <c r="A421" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B421" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="C420" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E420" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F420" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G420" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H420" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="421" ht="22" customHeight="true">
-      <c r="A421" s="3" t="s">
+      <c r="C421" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H421" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="B421" s="3" t="s">
+    </row>
+    <row r="422" ht="33" customHeight="true">
+      <c r="A422" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="C421" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E421" s="3" t="s">
+      <c r="B422" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="F421" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G421" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H421" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="422" ht="22" customHeight="true">
-      <c r="A422" s="3" t="s">
+      <c r="C422" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="423" ht="33" customHeight="true">
+      <c r="A423" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="B422" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E422" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F422" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G422" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H422" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="423" ht="22" customHeight="true">
-      <c r="A423" s="3" t="s">
+      <c r="B423" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="B423" s="3" t="s">
-        <v>1143</v>
-      </c>
       <c r="C423" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>186</v>
@@ -14682,65 +14703,65 @@
         <v>13</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>836</v>
+        <v>188</v>
       </c>
     </row>
     <row r="424" ht="22" customHeight="true">
       <c r="A424" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B424" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="B424" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="C424" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>186</v>
+        <v>1145</v>
       </c>
       <c r="F424" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="425" ht="33" customHeight="true">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="425" ht="22" customHeight="true">
       <c r="A425" s="3" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1146</v>
+        <v>62</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>286</v>
+        <v>63</v>
       </c>
       <c r="F425" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="426" ht="33" customHeight="true">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="426" ht="22" customHeight="true">
       <c r="A426" s="3" t="s">
         <v>1147</v>
       </c>
@@ -14751,19 +14772,19 @@
         <v>39</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c r="F426" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="H426" s="3" t="s">
-        <v>323</v>
+        <v>840</v>
       </c>
     </row>
     <row r="427" ht="22" customHeight="true">
@@ -14771,94 +14792,94 @@
         <v>1149</v>
       </c>
       <c r="B427" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="428" ht="33" customHeight="true">
+      <c r="A428" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="C427" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E427" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F427" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G427" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H427" s="3" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="428" ht="22" customHeight="true">
-      <c r="A428" s="3" t="s">
+      <c r="B428" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="B428" s="3" t="s">
-        <v>1152</v>
-      </c>
       <c r="C428" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="F428" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>49</v>
+        <v>278</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>902</v>
+        <v>294</v>
       </c>
     </row>
     <row r="429" ht="33" customHeight="true">
       <c r="A429" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="C429" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="430" ht="33" customHeight="true">
+      <c r="A430" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="C429" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E429" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F429" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G429" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H429" s="3" t="s">
+      <c r="B430" s="3" t="s">
         <v>1155</v>
-      </c>
-    </row>
-    <row r="430" ht="22" customHeight="true">
-      <c r="A430" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>1157</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="F430" s="3" t="s">
         <v>13</v>
@@ -14867,119 +14888,119 @@
         <v>49</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>902</v>
+        <v>50</v>
       </c>
     </row>
     <row r="431" ht="22" customHeight="true">
       <c r="A431" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="432" ht="22" customHeight="true">
+      <c r="A432" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B432" s="3" t="s">
         <v>1159</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E431" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F431" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G431" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="H431" s="3" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="432" ht="33" customHeight="true">
-      <c r="A432" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>1162</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>832</v>
+        <v>173</v>
       </c>
       <c r="F432" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="433" ht="22" customHeight="true">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="433" ht="33" customHeight="true">
       <c r="A433" s="3" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>832</v>
+        <v>153</v>
       </c>
       <c r="F433" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>1166</v>
+        <v>83</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="434" ht="22" customHeight="true">
       <c r="A434" s="3" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>1140</v>
+        <v>173</v>
       </c>
       <c r="F434" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>209</v>
+        <v>905</v>
       </c>
     </row>
     <row r="435" ht="22" customHeight="true">
       <c r="A435" s="3" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>10</v>
@@ -14988,68 +15009,172 @@
         <v>11</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>105</v>
+        <v>1167</v>
       </c>
       <c r="F435" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>32</v>
+        <v>828</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>106</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="436" ht="33" customHeight="true">
       <c r="A436" s="3" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>31</v>
+        <v>836</v>
       </c>
       <c r="F436" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>36</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="437" ht="22" customHeight="true">
       <c r="A437" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H437" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="B437" s="3" t="s">
+    </row>
+    <row r="438" ht="22" customHeight="true">
+      <c r="A438" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="C437" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E437" s="3" t="s">
+      <c r="B438" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="439" ht="22" customHeight="true">
+      <c r="A439" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="440" ht="33" customHeight="true">
+      <c r="A440" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="441" ht="22" customHeight="true">
+      <c r="A441" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E441" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F437" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G437" s="3" t="s">
+      <c r="F441" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G441" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H437" s="3" t="s">
-        <v>1176</v>
+      <c r="H441" s="3" t="s">
+        <v>1183</v>
       </c>
     </row>
   </sheetData>

--- a/data/Загрузка справочник АСТ.xlsx
+++ b/data/Загрузка справочник АСТ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="1236">
   <si>
     <t>Артикул</t>
   </si>
@@ -2936,15 +2936,6 @@
   </si>
   <si>
     <t>Крышка для формы алюм. 220х170 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
-  </si>
-  <si>
-    <t>112958</t>
-  </si>
-  <si>
-    <t>Контейнер 750 мл d149,5xh60,5 мм диз. "Жако", без окна, без крышки, карт. 360 шт/кор</t>
-  </si>
-  <si>
-    <t>ФЛЕКСОЗНАК ООО</t>
   </si>
   <si>
     <t>112966</t>
@@ -3862,7 +3853,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H458"/>
+  <dimension ref="H457"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -12652,24 +12643,24 @@
         <v>13</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>973</v>
+        <v>404</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>525</v>
+        <v>423</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>908</v>
+        <v>445</v>
       </c>
     </row>
     <row r="339" ht="33" customHeight="true">
       <c r="A339" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B339" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>975</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>39</v>
@@ -12687,15 +12678,15 @@
         <v>423</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
     </row>
     <row r="340" ht="33" customHeight="true">
       <c r="A340" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="B340" s="3" t="s">
         <v>976</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>977</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>39</v>
@@ -12713,15 +12704,15 @@
         <v>423</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
     </row>
     <row r="341" ht="33" customHeight="true">
       <c r="A341" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>979</v>
+        <v>696</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>39</v>
@@ -12730,24 +12721,24 @@
         <v>13</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>404</v>
+        <v>587</v>
       </c>
       <c r="F341" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>423</v>
+        <v>693</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>485</v>
+        <v>694</v>
       </c>
     </row>
     <row r="342" ht="33" customHeight="true">
       <c r="A342" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>39</v>
@@ -12770,36 +12761,36 @@
     </row>
     <row r="343" ht="33" customHeight="true">
       <c r="A343" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>692</v>
+        <v>283</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>587</v>
+        <v>280</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G343" s="3" t="s">
-        <v>693</v>
+        <v>194</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>694</v>
+        <v>281</v>
       </c>
     </row>
     <row r="344" ht="33" customHeight="true">
       <c r="A344" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>39</v>
@@ -12822,36 +12813,36 @@
     </row>
     <row r="345" ht="33" customHeight="true">
       <c r="A345" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="B345" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E345" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="F345" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>281</v>
+        <v>984</v>
       </c>
     </row>
     <row r="346" ht="33" customHeight="true">
       <c r="A346" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>746</v>
@@ -12860,7 +12851,7 @@
         <v>13</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F346" s="3" t="s">
         <v>13</v>
@@ -12886,7 +12877,7 @@
         <v>13</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F347" s="3" t="s">
         <v>13</v>
@@ -12912,7 +12903,7 @@
         <v>13</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F348" s="3" t="s">
         <v>13</v>
@@ -12938,7 +12929,7 @@
         <v>13</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F349" s="3" t="s">
         <v>13</v>
@@ -12947,15 +12938,15 @@
         <v>64</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
     </row>
     <row r="350" ht="33" customHeight="true">
       <c r="A350" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B350" s="3" t="s">
         <v>997</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>998</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>746</v>
@@ -12964,7 +12955,7 @@
         <v>13</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F350" s="3" t="s">
         <v>13</v>
@@ -12978,10 +12969,10 @@
     </row>
     <row r="351" ht="33" customHeight="true">
       <c r="A351" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B351" s="3" t="s">
         <v>999</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>1000</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>746</v>
@@ -12990,7 +12981,7 @@
         <v>13</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F351" s="3" t="s">
         <v>13</v>
@@ -13004,10 +12995,10 @@
     </row>
     <row r="352" ht="33" customHeight="true">
       <c r="A352" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B352" s="3" t="s">
         <v>1001</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>1002</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>746</v>
@@ -13016,7 +13007,7 @@
         <v>13</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F352" s="3" t="s">
         <v>13</v>
@@ -13028,38 +13019,38 @@
         <v>993</v>
       </c>
     </row>
-    <row r="353" ht="33" customHeight="true">
+    <row r="353" ht="22" customHeight="true">
       <c r="A353" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1004</v>
+        <v>331</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>746</v>
+        <v>39</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>986</v>
+        <v>264</v>
       </c>
       <c r="F353" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>64</v>
+        <v>287</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>996</v>
+        <v>329</v>
       </c>
     </row>
     <row r="354" ht="22" customHeight="true">
       <c r="A354" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>331</v>
+        <v>1004</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>39</v>
@@ -13082,10 +13073,10 @@
     </row>
     <row r="355" ht="22" customHeight="true">
       <c r="A355" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1007</v>
+        <v>333</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>39</v>
@@ -13106,12 +13097,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="356" ht="22" customHeight="true">
+    <row r="356" ht="33" customHeight="true">
       <c r="A356" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>39</v>
@@ -13126,18 +13117,18 @@
         <v>13</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
     </row>
     <row r="357" ht="33" customHeight="true">
       <c r="A357" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>263</v>
+        <v>481</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>39</v>
@@ -13152,39 +13143,39 @@
         <v>13</v>
       </c>
       <c r="G357" s="3" t="s">
-        <v>194</v>
+        <v>423</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="358" ht="33" customHeight="true">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="358" ht="22" customHeight="true">
       <c r="A358" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E358" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="B358" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E358" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="F358" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>423</v>
+        <v>103</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="359" ht="22" customHeight="true">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="359" ht="33" customHeight="true">
       <c r="A359" s="3" t="s">
         <v>1011</v>
       </c>
@@ -13192,7 +13183,7 @@
         <v>1012</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>11</v>
@@ -13204,44 +13195,44 @@
         <v>13</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>103</v>
+        <v>718</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="360" ht="33" customHeight="true">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="360" ht="22" customHeight="true">
       <c r="A360" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>1016</v>
+        <v>26</v>
       </c>
       <c r="F360" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>718</v>
+        <v>215</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>1017</v>
+        <v>216</v>
       </c>
     </row>
     <row r="361" ht="22" customHeight="true">
       <c r="A361" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B361" s="3" t="s">
         <v>1018</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>1019</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>10</v>
@@ -13264,10 +13255,10 @@
     </row>
     <row r="362" ht="22" customHeight="true">
       <c r="A362" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1021</v>
+        <v>213</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>10</v>
@@ -13276,7 +13267,7 @@
         <v>11</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="F362" s="3" t="s">
         <v>13</v>
@@ -13288,30 +13279,30 @@
         <v>216</v>
       </c>
     </row>
-    <row r="363" ht="22" customHeight="true">
+    <row r="363" ht="33" customHeight="true">
       <c r="A363" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H363" s="3" t="s">
         <v>1022</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E363" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F363" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G363" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H363" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="364" ht="33" customHeight="true">
@@ -13337,15 +13328,15 @@
         <v>287</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>1025</v>
+        <v>292</v>
       </c>
     </row>
     <row r="365" ht="33" customHeight="true">
       <c r="A365" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1027</v>
+        <v>315</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>39</v>
@@ -13363,15 +13354,15 @@
         <v>287</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
     <row r="366" ht="33" customHeight="true">
       <c r="A366" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>39</v>
@@ -13389,15 +13380,15 @@
         <v>287</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="367" ht="33" customHeight="true">
       <c r="A367" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>39</v>
@@ -13415,15 +13406,15 @@
         <v>287</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="368" ht="33" customHeight="true">
       <c r="A368" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>298</v>
+        <v>1029</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>39</v>
@@ -13441,7 +13432,7 @@
         <v>287</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>300</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="369" ht="33" customHeight="true">
@@ -13545,15 +13536,15 @@
         <v>287</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="373" ht="33" customHeight="true">
       <c r="A373" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B373" s="3" t="s">
         <v>1043</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>1044</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>39</v>
@@ -13571,7 +13562,7 @@
         <v>287</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="374" ht="33" customHeight="true">
@@ -13597,15 +13588,15 @@
         <v>287</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>1047</v>
+        <v>316</v>
       </c>
     </row>
     <row r="375" ht="33" customHeight="true">
       <c r="A375" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B375" s="3" t="s">
         <v>1048</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>1049</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>39</v>
@@ -13623,15 +13614,15 @@
         <v>287</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>316</v>
+        <v>885</v>
       </c>
     </row>
     <row r="376" ht="33" customHeight="true">
       <c r="A376" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1051</v>
+        <v>325</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>39</v>
@@ -13649,15 +13640,15 @@
         <v>287</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>885</v>
+        <v>326</v>
       </c>
     </row>
     <row r="377" ht="33" customHeight="true">
       <c r="A377" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>325</v>
+        <v>1051</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>39</v>
@@ -13675,7 +13666,7 @@
         <v>287</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>326</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="378" ht="33" customHeight="true">
@@ -13727,15 +13718,15 @@
         <v>287</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="380" ht="33" customHeight="true">
       <c r="A380" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B380" s="3" t="s">
         <v>1059</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>1060</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>39</v>
@@ -13753,15 +13744,15 @@
         <v>287</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="381" ht="33" customHeight="true">
       <c r="A381" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1062</v>
+        <v>309</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>39</v>
@@ -13779,15 +13770,15 @@
         <v>287</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>1055</v>
+        <v>310</v>
       </c>
     </row>
     <row r="382" ht="33" customHeight="true">
       <c r="A382" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>309</v>
+        <v>1062</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>39</v>
@@ -13805,15 +13796,15 @@
         <v>287</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="383" ht="33" customHeight="true">
       <c r="A383" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1065</v>
+        <v>325</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>39</v>
@@ -13834,64 +13825,64 @@
         <v>326</v>
       </c>
     </row>
-    <row r="384" ht="33" customHeight="true">
+    <row r="384" ht="22" customHeight="true">
       <c r="A384" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="385" ht="33" customHeight="true">
+      <c r="A385" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B384" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E384" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F384" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G384" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H384" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="385" ht="22" customHeight="true">
-      <c r="A385" s="3" t="s">
-        <v>1067</v>
-      </c>
       <c r="B385" s="3" t="s">
-        <v>1068</v>
+        <v>259</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="F385" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="386" ht="33" customHeight="true">
       <c r="A386" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>39</v>
@@ -13914,10 +13905,10 @@
     </row>
     <row r="387" ht="33" customHeight="true">
       <c r="A387" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>39</v>
@@ -13940,10 +13931,10 @@
     </row>
     <row r="388" ht="33" customHeight="true">
       <c r="A388" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>254</v>
+        <v>913</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>39</v>
@@ -13964,12 +13955,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="389" ht="33" customHeight="true">
+    <row r="389" ht="22" customHeight="true">
       <c r="A389" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>913</v>
+        <v>857</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>39</v>
@@ -13984,18 +13975,18 @@
         <v>13</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="390" ht="22" customHeight="true">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="390" ht="33" customHeight="true">
       <c r="A390" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>857</v>
+        <v>1072</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>39</v>
@@ -14010,18 +14001,18 @@
         <v>13</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="391" ht="33" customHeight="true">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="391" ht="22" customHeight="true">
       <c r="A391" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1075</v>
+        <v>815</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>39</v>
@@ -14036,45 +14027,45 @@
         <v>13</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="392" ht="22" customHeight="true">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="392" ht="33" customHeight="true">
       <c r="A392" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>815</v>
+        <v>1075</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>193</v>
+        <v>587</v>
       </c>
       <c r="F392" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>347</v>
+        <v>718</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>361</v>
+        <v>719</v>
       </c>
     </row>
     <row r="393" ht="33" customHeight="true">
       <c r="A393" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B393" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="B393" s="3" t="s">
-        <v>1078</v>
-      </c>
       <c r="C393" s="3" t="s">
         <v>39</v>
       </c>
@@ -14082,76 +14073,76 @@
         <v>11</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>587</v>
+        <v>496</v>
       </c>
       <c r="F393" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>718</v>
+        <v>525</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>719</v>
+        <v>666</v>
       </c>
     </row>
     <row r="394" ht="33" customHeight="true">
       <c r="A394" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B394" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="B394" s="3" t="s">
-        <v>1080</v>
-      </c>
       <c r="C394" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>496</v>
+        <v>404</v>
       </c>
       <c r="F394" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>666</v>
+        <v>558</v>
       </c>
     </row>
     <row r="395" ht="33" customHeight="true">
       <c r="A395" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B395" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="C395" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E395" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="C395" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D395" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E395" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="F395" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>551</v>
+        <v>347</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="396" ht="33" customHeight="true">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="396" ht="22" customHeight="true">
       <c r="A396" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>39</v>
@@ -14160,33 +14151,33 @@
         <v>11</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="F396" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>347</v>
+        <v>85</v>
       </c>
       <c r="H396" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="397" ht="33" customHeight="true">
+      <c r="A397" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E397" s="3" t="s">
         <v>1086</v>
-      </c>
-    </row>
-    <row r="397" ht="22" customHeight="true">
-      <c r="A397" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E397" s="3" t="s">
-        <v>1089</v>
       </c>
       <c r="F397" s="3" t="s">
         <v>13</v>
@@ -14195,16 +14186,16 @@
         <v>85</v>
       </c>
       <c r="H397" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="398" ht="22" customHeight="true">
+      <c r="A398" s="3" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="398" ht="33" customHeight="true">
-      <c r="A398" s="3" t="s">
+      <c r="B398" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="B398" s="3" t="s">
-        <v>1092</v>
-      </c>
       <c r="C398" s="3" t="s">
         <v>39</v>
       </c>
@@ -14212,7 +14203,7 @@
         <v>11</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F398" s="3" t="s">
         <v>13</v>
@@ -14221,59 +14212,59 @@
         <v>85</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="399" ht="22" customHeight="true">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="399" ht="33" customHeight="true">
       <c r="A399" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B399" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="B399" s="3" t="s">
-        <v>1094</v>
-      </c>
       <c r="C399" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>1089</v>
+        <v>587</v>
       </c>
       <c r="F399" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>85</v>
+        <v>718</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>1090</v>
+        <v>722</v>
       </c>
     </row>
     <row r="400" ht="33" customHeight="true">
       <c r="A400" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B400" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="C400" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="H400" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E400" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="F400" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G400" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="H400" s="3" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="401" ht="33" customHeight="true">
@@ -14287,16 +14278,16 @@
         <v>39</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="F401" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>673</v>
+        <v>287</v>
       </c>
       <c r="H401" s="3" t="s">
         <v>1099</v>
@@ -14325,15 +14316,15 @@
         <v>287</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>1102</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="403" ht="33" customHeight="true">
       <c r="A403" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B403" s="3" t="s">
         <v>1103</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>1104</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>39</v>
@@ -14351,15 +14342,15 @@
         <v>287</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>1047</v>
+        <v>885</v>
       </c>
     </row>
     <row r="404" ht="33" customHeight="true">
       <c r="A404" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B404" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>1106</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>39</v>
@@ -14377,16 +14368,16 @@
         <v>287</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>885</v>
+        <v>300</v>
       </c>
     </row>
     <row r="405" ht="33" customHeight="true">
       <c r="A405" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B405" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="B405" s="3" t="s">
-        <v>1108</v>
-      </c>
       <c r="C405" s="3" t="s">
         <v>39</v>
       </c>
@@ -14394,24 +14385,24 @@
         <v>13</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>299</v>
+        <v>496</v>
       </c>
       <c r="F405" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>287</v>
+        <v>423</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>300</v>
+        <v>488</v>
       </c>
     </row>
     <row r="406" ht="33" customHeight="true">
       <c r="A406" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B406" s="3" t="s">
         <v>1109</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>1110</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>39</v>
@@ -14426,18 +14417,18 @@
         <v>13</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>423</v>
+        <v>1110</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>488</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="407" ht="33" customHeight="true">
       <c r="A407" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>39</v>
@@ -14446,13 +14437,13 @@
         <v>13</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>496</v>
+        <v>587</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>1113</v>
+        <v>693</v>
       </c>
       <c r="H407" s="3" t="s">
         <v>1114</v>
@@ -14481,15 +14472,15 @@
         <v>693</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>1117</v>
+        <v>694</v>
       </c>
     </row>
     <row r="409" ht="33" customHeight="true">
       <c r="A409" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B409" s="3" t="s">
         <v>1118</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>1119</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>39</v>
@@ -14504,10 +14495,10 @@
         <v>13</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>693</v>
+        <v>77</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>694</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="410" ht="33" customHeight="true">
@@ -14524,50 +14515,50 @@
         <v>13</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>587</v>
+        <v>496</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>1122</v>
+        <v>572</v>
       </c>
     </row>
     <row r="411" ht="33" customHeight="true">
       <c r="A411" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B411" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="C411" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G411" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="C411" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E411" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="F411" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G411" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="H411" s="3" t="s">
-        <v>572</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="412" ht="33" customHeight="true">
       <c r="A412" s="3" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>10</v>
@@ -14582,65 +14573,65 @@
         <v>13</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H412" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="413" ht="22" customHeight="true">
+      <c r="A413" s="3" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="413" ht="33" customHeight="true">
-      <c r="A413" s="3" t="s">
+      <c r="B413" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="414" ht="33" customHeight="true">
+      <c r="A414" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B414" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="C413" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E413" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="F413" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G413" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H413" s="3" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="414" ht="22" customHeight="true">
-      <c r="A414" s="3" t="s">
+      <c r="C414" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H414" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="B414" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E414" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F414" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G414" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="H414" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="415" ht="33" customHeight="true">
+    </row>
+    <row r="415" ht="22" customHeight="true">
       <c r="A415" s="3" t="s">
         <v>1132</v>
       </c>
@@ -14648,31 +14639,31 @@
         <v>1133</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>851</v>
+        <v>193</v>
       </c>
       <c r="F415" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H415" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="416" ht="33" customHeight="true">
+      <c r="A416" s="3" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="416" ht="22" customHeight="true">
-      <c r="A416" s="3" t="s">
+      <c r="B416" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="B416" s="3" t="s">
-        <v>1136</v>
-      </c>
       <c r="C416" s="3" t="s">
         <v>39</v>
       </c>
@@ -14680,25 +14671,25 @@
         <v>13</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>193</v>
+        <v>496</v>
       </c>
       <c r="F416" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>858</v>
+        <v>281</v>
       </c>
     </row>
     <row r="417" ht="33" customHeight="true">
       <c r="A417" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B417" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="B417" s="3" t="s">
-        <v>1138</v>
-      </c>
       <c r="C417" s="3" t="s">
         <v>39</v>
       </c>
@@ -14706,24 +14697,24 @@
         <v>13</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>496</v>
+        <v>404</v>
       </c>
       <c r="F417" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>194</v>
+        <v>423</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>281</v>
+        <v>424</v>
       </c>
     </row>
     <row r="418" ht="33" customHeight="true">
       <c r="A418" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B418" s="3" t="s">
         <v>1139</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>1140</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>39</v>
@@ -14741,15 +14732,15 @@
         <v>423</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="419" ht="33" customHeight="true">
       <c r="A419" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B419" s="3" t="s">
         <v>1141</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>1142</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>39</v>
@@ -14767,16 +14758,16 @@
         <v>423</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="420" ht="33" customHeight="true">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="420" ht="22" customHeight="true">
       <c r="A420" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B420" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="B420" s="3" t="s">
-        <v>1144</v>
-      </c>
       <c r="C420" s="3" t="s">
         <v>39</v>
       </c>
@@ -14784,50 +14775,50 @@
         <v>13</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>404</v>
+        <v>193</v>
       </c>
       <c r="F420" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>423</v>
+        <v>49</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>424</v>
+        <v>858</v>
       </c>
     </row>
     <row r="421" ht="22" customHeight="true">
       <c r="A421" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B421" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="C421" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E421" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="C421" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E421" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="F421" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>49</v>
+        <v>843</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>858</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="422" ht="22" customHeight="true">
       <c r="A422" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>10</v>
@@ -14836,7 +14827,7 @@
         <v>11</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F422" s="3" t="s">
         <v>13</v>
@@ -14845,33 +14836,33 @@
         <v>843</v>
       </c>
       <c r="H422" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="423" ht="33" customHeight="true">
+      <c r="A423" s="3" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="423" ht="22" customHeight="true">
-      <c r="A423" s="3" t="s">
+      <c r="B423" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="C423" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H423" s="3" t="s">
         <v>1152</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E423" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F423" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G423" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="H423" s="3" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="424" ht="33" customHeight="true">
@@ -14885,16 +14876,16 @@
         <v>39</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="F424" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c r="H424" s="3" t="s">
         <v>1155</v>
@@ -14911,16 +14902,16 @@
         <v>39</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>163</v>
+        <v>587</v>
       </c>
       <c r="F425" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H425" s="3" t="s">
         <v>1158</v>
@@ -14940,13 +14931,13 @@
         <v>13</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>587</v>
+        <v>496</v>
       </c>
       <c r="F426" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>77</v>
+        <v>1110</v>
       </c>
       <c r="H426" s="3" t="s">
         <v>1161</v>
@@ -14972,19 +14963,19 @@
         <v>13</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>1113</v>
+        <v>423</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>1164</v>
+        <v>488</v>
       </c>
     </row>
     <row r="428" ht="33" customHeight="true">
       <c r="A428" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B428" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="B428" s="3" t="s">
-        <v>1166</v>
-      </c>
       <c r="C428" s="3" t="s">
         <v>39</v>
       </c>
@@ -14992,42 +14983,42 @@
         <v>13</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>496</v>
+        <v>193</v>
       </c>
       <c r="F428" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>423</v>
+        <v>194</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>488</v>
+        <v>195</v>
       </c>
     </row>
     <row r="429" ht="33" customHeight="true">
       <c r="A429" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B429" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="C429" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E429" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C429" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E429" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="F429" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G429" s="3" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
     </row>
     <row r="430" ht="33" customHeight="true">
@@ -15044,7 +15035,7 @@
         <v>11</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F430" s="3" t="s">
         <v>13</v>
@@ -15058,10 +15049,10 @@
     </row>
     <row r="431" ht="33" customHeight="true">
       <c r="A431" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B431" s="3" t="s">
         <v>1172</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>1173</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>18</v>
@@ -15070,7 +15061,7 @@
         <v>11</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F431" s="3" t="s">
         <v>13</v>
@@ -15084,10 +15075,10 @@
     </row>
     <row r="432" ht="33" customHeight="true">
       <c r="A432" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B432" s="3" t="s">
         <v>1174</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>1175</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>18</v>
@@ -15096,7 +15087,7 @@
         <v>11</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F432" s="3" t="s">
         <v>13</v>
@@ -15108,30 +15099,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="433" ht="33" customHeight="true">
+    <row r="433" ht="22" customHeight="true">
       <c r="A433" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B433" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="C433" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E433" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="C433" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E433" s="3" t="s">
-        <v>1171</v>
-      </c>
       <c r="F433" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
     </row>
     <row r="434" ht="22" customHeight="true">
@@ -15139,65 +15130,65 @@
         <v>1178</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1179</v>
+        <v>57</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D434" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>1180</v>
+        <v>58</v>
       </c>
       <c r="F434" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
     </row>
     <row r="435" ht="22" customHeight="true">
       <c r="A435" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>57</v>
+        <v>1180</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="F435" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>60</v>
+        <v>855</v>
       </c>
     </row>
     <row r="436" ht="22" customHeight="true">
       <c r="A436" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1183</v>
+        <v>350</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E436" s="3" t="s">
         <v>193</v>
@@ -15206,18 +15197,18 @@
         <v>13</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="437" ht="22" customHeight="true">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="437" ht="33" customHeight="true">
       <c r="A437" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>350</v>
+        <v>1183</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>39</v>
@@ -15226,24 +15217,24 @@
         <v>13</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="F437" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
     </row>
     <row r="438" ht="33" customHeight="true">
       <c r="A438" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B438" s="3" t="s">
         <v>1185</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>1186</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>39</v>
@@ -15261,94 +15252,94 @@
         <v>287</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="439" ht="33" customHeight="true">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="439" ht="22" customHeight="true">
       <c r="A439" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B439" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="C439" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E439" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="C439" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E439" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="F439" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>287</v>
+        <v>59</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="440" ht="22" customHeight="true">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="440" ht="33" customHeight="true">
       <c r="A440" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>1191</v>
+        <v>19</v>
       </c>
       <c r="F440" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>1192</v>
+        <v>50</v>
       </c>
     </row>
     <row r="441" ht="33" customHeight="true">
       <c r="A441" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E441" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="B441" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E441" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F441" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>49</v>
+        <v>718</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>50</v>
+        <v>719</v>
       </c>
     </row>
     <row r="442" ht="33" customHeight="true">
       <c r="A442" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="B442" s="3" t="s">
-        <v>724</v>
-      </c>
       <c r="C442" s="3" t="s">
         <v>39</v>
       </c>
@@ -15356,45 +15347,45 @@
         <v>13</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>1196</v>
+        <v>587</v>
       </c>
       <c r="F442" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>719</v>
+        <v>963</v>
       </c>
     </row>
     <row r="443" ht="33" customHeight="true">
       <c r="A443" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B443" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="B443" s="3" t="s">
+      <c r="C443" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H443" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="C443" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E443" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="F443" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G443" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="H443" s="3" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="444" ht="33" customHeight="true">
+    </row>
+    <row r="444" ht="22" customHeight="true">
       <c r="A444" s="3" t="s">
         <v>1199</v>
       </c>
@@ -15402,48 +15393,48 @@
         <v>1200</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F444" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G444" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="445" ht="33" customHeight="true">
+      <c r="A445" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G445" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H444" s="3" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="445" ht="22" customHeight="true">
-      <c r="A445" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B445" s="3" t="s">
+      <c r="H445" s="3" t="s">
         <v>1203</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E445" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F445" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G445" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H445" s="3" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="446" ht="33" customHeight="true">
@@ -15472,7 +15463,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="447" ht="33" customHeight="true">
+    <row r="447" ht="22" customHeight="true">
       <c r="A447" s="3" t="s">
         <v>1207</v>
       </c>
@@ -15480,56 +15471,56 @@
         <v>1208</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E447" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="F447" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="H447" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="448" ht="33" customHeight="true">
+      <c r="A448" s="3" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="448" ht="22" customHeight="true">
-      <c r="A448" s="3" t="s">
+      <c r="B448" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="C448" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="449" ht="22" customHeight="true">
+      <c r="A449" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="C448" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D448" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E448" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F448" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G448" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H448" s="3" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="449" ht="33" customHeight="true">
-      <c r="A449" s="3" t="s">
+      <c r="B449" s="3" t="s">
         <v>1212</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>1213</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>10</v>
@@ -15538,19 +15529,19 @@
         <v>11</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>238</v>
+        <v>1213</v>
       </c>
       <c r="F449" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>127</v>
+        <v>843</v>
       </c>
       <c r="H449" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="450" ht="22" customHeight="true">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="450" ht="33" customHeight="true">
       <c r="A450" s="3" t="s">
         <v>1214</v>
       </c>
@@ -15558,22 +15549,22 @@
         <v>1215</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E450" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H450" s="3" t="s">
         <v>1216</v>
-      </c>
-      <c r="F450" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G450" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="H450" s="3" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="451" ht="33" customHeight="true">
@@ -15599,15 +15590,15 @@
         <v>54</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="452" ht="33" customHeight="true">
       <c r="A452" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B452" s="3" t="s">
         <v>1220</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>1221</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>18</v>
@@ -15616,50 +15607,50 @@
         <v>11</v>
       </c>
       <c r="E452" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="453" ht="22" customHeight="true">
+      <c r="A453" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E453" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="F452" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G452" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H452" s="3" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="453" ht="33" customHeight="true">
-      <c r="A453" s="3" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D453" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E453" s="3" t="s">
-        <v>1224</v>
-      </c>
       <c r="F453" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>711</v>
+        <v>1225</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="454" ht="22" customHeight="true">
       <c r="A454" s="3" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>10</v>
@@ -15668,24 +15659,24 @@
         <v>11</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>851</v>
+        <v>1177</v>
       </c>
       <c r="F454" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>1228</v>
+        <v>215</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>1229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="455" ht="22" customHeight="true">
       <c r="A455" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B455" s="3" t="s">
         <v>1230</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>1231</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>10</v>
@@ -15694,24 +15685,24 @@
         <v>11</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>1180</v>
+        <v>107</v>
       </c>
       <c r="F455" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="H455" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="456" ht="22" customHeight="true">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="456" ht="33" customHeight="true">
       <c r="A456" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B456" s="3" t="s">
         <v>1232</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>1233</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>10</v>
@@ -15720,7 +15711,7 @@
         <v>11</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="F456" s="3" t="s">
         <v>13</v>
@@ -15729,59 +15720,33 @@
         <v>32</v>
       </c>
       <c r="H456" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="457" ht="33" customHeight="true">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="457" ht="22" customHeight="true">
       <c r="A457" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B457" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="B457" s="3" t="s">
+      <c r="C457" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H457" s="3" t="s">
         <v>1235</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E457" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F457" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G457" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H457" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="458" ht="22" customHeight="true">
-      <c r="A458" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E458" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F458" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G458" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H458" s="3" t="s">
-        <v>1238</v>
       </c>
     </row>
   </sheetData>
